--- a/Results/Categorization/dp-partial-ner-w2v-money.xlsx
+++ b/Results/Categorization/dp-partial-ner-w2v-money.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3222" uniqueCount="1814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="1854">
   <si>
     <t>id</t>
   </si>
@@ -4030,168 +4030,213 @@
     <t>FOOD|FOOD</t>
   </si>
   <si>
+    <t>SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
     <t>FOOD|AMBIENCE</t>
   </si>
   <si>
-    <t>SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD</t>
+    <t>AMBIENCE|</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>|FOOD|FOOD||FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE|AMBIENCE|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES|PRICES</t>
   </si>
   <si>
     <t>FOOD|FOOD|FOOD</t>
   </si>
   <si>
-    <t>SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
+    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|PRICES|PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD||SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD||FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD||FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|SERVICE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES</t>
   </si>
   <si>
     <t>AMBIENCE|FOOD|FOOD</t>
   </si>
   <si>
-    <t>PRICES|FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>|FOOD|FOOD||FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|PRICES|PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD||FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD||FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|SERVICE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES</t>
-  </si>
-  <si>
     <t>AMBIENCE|FOOD|FOOD|||AMBIENCE</t>
   </si>
   <si>
@@ -4201,9 +4246,6 @@
     <t>SERVICE|AMBIENCE</t>
   </si>
   <si>
-    <t>AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
     <t>SERVICE|FOOD|FOOD|FOOD|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
   </si>
   <si>
@@ -4213,10 +4255,7 @@
     <t>SERVICE|SERVICE|FOOD</t>
   </si>
   <si>
-    <t>FOOD|SERVICE|PRICES|FOOD|AMBIENCE|FOOD|</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE</t>
+    <t>FOOD|SERVICE|PRICES|FOOD||AMBIENCE|FOOD|</t>
   </si>
   <si>
     <t>FOOD|AMBIENCE|SERVICE|SERVICE</t>
@@ -4225,34 +4264,37 @@
     <t>AMBIENCE|SERVICE|SERVICE|FOOD</t>
   </si>
   <si>
-    <t>SERVICE|AMBIENCE|FOOD</t>
+    <t>SERVICE|AMBIENCE|PRICES|FOOD</t>
   </si>
   <si>
     <t>FOOD|FOOD|PRICES|PRICES|FOOD||FOOD|FOOD</t>
   </si>
   <si>
-    <t>AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE|PRICES</t>
+    <t>FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|PRICES|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|PRICES</t>
   </si>
   <si>
     <t>SERVICE|SERVICE|AMBIENCE</t>
   </si>
   <si>
+    <t>SERVICE|FOOD|SERVICE|</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
     <t>PRICES|PRICES|FOOD</t>
   </si>
   <si>
-    <t>FOOD|PRICES|PRICES</t>
+    <t>FOOD|FOOD|PRICES|PRICES</t>
   </si>
   <si>
     <t>FOOD|AMBIENCE|FOOD</t>
@@ -4261,217 +4303,226 @@
     <t>FOOD|FOOD|PRICES|FOOD|PRICES</t>
   </si>
   <si>
-    <t>AMBIENCE|</t>
-  </si>
-  <si>
     <t>FOOD|PRICES|AMBIENCE|PRICES</t>
   </si>
   <si>
+    <t>FOOD||SERVICE</t>
+  </si>
+  <si>
     <t>SERVICE|FOOD|SERVICE|AMBIENCE</t>
   </si>
   <si>
-    <t>AMBIENCE|PRICES|FOOD|AMBIENCE</t>
+    <t>AMBIENCE|PRICES|FOOD|FOOD|SERVICE|AMBIENCE</t>
   </si>
   <si>
     <t>SERVICE|PRICES|SERVICE|FOOD</t>
   </si>
   <si>
-    <t>SERVICE|SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|PRICES</t>
+    <t>SERVICE|SERVICE|SERVICE|FOOD|SERVICE</t>
   </si>
   <si>
     <t>SERVICE|PRICES|FOOD</t>
   </si>
   <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD||PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|SERVICE|SERVICE|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES||PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD||PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|SERVICE||AMBIENCE|AMBIENCE|PRICES||</t>
+  </si>
+  <si>
+    <t>FOOD||FOOD|SERVICE|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE||FOOD|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
     <t>AMBIENCE|FOOD|PRICES</t>
   </si>
   <si>
-    <t>PRICES|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES||PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD||PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|SERVICE||AMBIENCE|AMBIENCE|PRICES||</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE||FOOD|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES|AMBIENCE|PRICES</t>
+    <t>AMBIENCE|SERVICE|FOOD|AMBIENCE</t>
   </si>
   <si>
     <t>PRICES|SERVICE|PRICES</t>
   </si>
   <si>
-    <t>PRICES|PRICES|PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|SERVICE</t>
+    <t>PRICES|PRICES|PRICES|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|SERVICE</t>
   </si>
   <si>
     <t>FOOD|FOOD|FOOD|FOOD|PRICES</t>
   </si>
   <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>|place</t>
+  </si>
+  <si>
     <t>food|portions</t>
   </si>
   <si>
-    <t>food|times</t>
-  </si>
-  <si>
     <t>confit|duck</t>
   </si>
   <si>
     <t>list|wine|values</t>
   </si>
   <si>
-    <t>cart|attendant|lotus|leaf</t>
-  </si>
-  <si>
-    <t>pork|chow|family</t>
-  </si>
-  <si>
-    <t>price</t>
+    <t>cart|attendant|lotus|leaf|rice|rice</t>
+  </si>
+  <si>
+    <t>mai|pork|fun|chow|family|shu</t>
+  </si>
+  <si>
+    <t>|price</t>
   </si>
   <si>
     <t>service|perfection</t>
   </si>
   <si>
-    <t>visit</t>
-  </si>
-  <si>
-    <t>stuff|food|fusion|thing</t>
-  </si>
-  <si>
-    <t>thing|chicken|puree</t>
-  </si>
-  <si>
-    <t>salt</t>
-  </si>
-  <si>
-    <t>effort</t>
-  </si>
-  <si>
-    <t>list|sake</t>
+    <t>|visit</t>
+  </si>
+  <si>
+    <t>bit|stuff|food|fusion</t>
+  </si>
+  <si>
+    <t>|chicken|puree</t>
+  </si>
+  <si>
+    <t>|salt|bit</t>
+  </si>
+  <si>
+    <t>effort|tho</t>
+  </si>
+  <si>
+    <t>|list|sake</t>
   </si>
   <si>
     <t>roll|spicy|tempura|tuna|appetizer|rock|shrimp</t>
   </si>
   <si>
+    <t>bit|service</t>
+  </si>
+  <si>
     <t>taste|mouth|service</t>
   </si>
   <si>
-    <t>self-respect</t>
+    <t>waiter|bit|self-respect</t>
   </si>
   <si>
     <t>notch|service</t>
   </si>
   <si>
-    <t>sushi|restaurant|urchin|sushi</t>
-  </si>
-  <si>
-    <t>ration</t>
+    <t>sushi|restaurant|sea|urchin|sushi</t>
+  </si>
+  <si>
+    <t>rice|ration</t>
   </si>
   <si>
     <t>advanatage|half|price|sushi|deal</t>
   </si>
   <si>
-    <t>food|impecable</t>
+    <t>|food|impecable</t>
   </si>
   <si>
     <t>menu|prix|fixe|penny</t>
   </si>
   <si>
-    <t>food|$6</t>
+    <t>food|$6!-</t>
   </si>
   <si>
     <t>somosas|chai|chole|dhosas|dhal</t>
@@ -4480,10 +4531,13 @@
     <t>service|varys</t>
   </si>
   <si>
+    <t>|food</t>
+  </si>
+  <si>
     <t>ambience|lunch|conversation</t>
   </si>
   <si>
-    <t>idea|view|chart|house</t>
+    <t>river|idea|top|view|chart|house</t>
   </si>
   <si>
     <t>service|food|price|beginning</t>
@@ -4492,13 +4546,13 @@
     <t>dessert|lava|cake</t>
   </si>
   <si>
-    <t>bistro|path</t>
-  </si>
-  <si>
-    <t>desserts|soup|food</t>
-  </si>
-  <si>
-    <t>ambience|food|trip|world</t>
+    <t>|bistro|path</t>
+  </si>
+  <si>
+    <t>desserts|soup|food|way</t>
+  </si>
+  <si>
+    <t>ambience|food|companion|trip|world</t>
   </si>
   <si>
     <t>pizza|cheese</t>
@@ -4522,10 +4576,10 @@
     <t>shrimp|wife</t>
   </si>
   <si>
-    <t>signs|menus|food|waitstaff</t>
-  </si>
-  <si>
-    <t>leon|fare|bistro|village|specials|atmosphere</t>
+    <t>|signs|menus|food|waitstaff</t>
+  </si>
+  <si>
+    <t>leon|fare|bistro|village|specials|gem|atmosphere|hip</t>
   </si>
   <si>
     <t>wife|staff</t>
@@ -4537,13 +4591,13 @@
     <t>service|decor|food|portions</t>
   </si>
   <si>
-    <t>point</t>
+    <t>hostess|point</t>
   </si>
   <si>
     <t>oily|food</t>
   </si>
   <si>
-    <t>food|wine|times|place|service</t>
+    <t>food|wine|place|service</t>
   </si>
   <si>
     <t>wait|trouble</t>
@@ -4552,19 +4606,34 @@
     <t>glass|wine</t>
   </si>
   <si>
-    <t>toppings|$20,</t>
+    <t>|pizza</t>
+  </si>
+  <si>
+    <t>pizza|way</t>
+  </si>
+  <si>
+    <t>toppings|$20!-|$3!-</t>
   </si>
   <si>
     <t>lunch|reviews</t>
   </si>
   <si>
-    <t>sauce|flavor|food</t>
+    <t>|sauce|flavor|food</t>
+  </si>
+  <si>
+    <t>waitress|food</t>
   </si>
   <si>
     <t>pizza|service</t>
   </si>
   <si>
-    <t>sushi|hands</t>
+    <t>|wait</t>
+  </si>
+  <si>
+    <t>block|end</t>
+  </si>
+  <si>
+    <t>sushi|city|hands</t>
   </si>
   <si>
     <t>food|place</t>
@@ -4576,13 +4645,13 @@
     <t>variety|menu</t>
   </si>
   <si>
-    <t>dumplings|section</t>
+    <t>|dumplings|lot|section</t>
   </si>
   <si>
     <t>sashimi|rolls</t>
   </si>
   <si>
-    <t>tuna</t>
+    <t>|tuna</t>
   </si>
   <si>
     <t>terrace|garden</t>
@@ -4591,7 +4660,7 @@
     <t>food|service</t>
   </si>
   <si>
-    <t>tartare|steak</t>
+    <t>bet|tartare|steak</t>
   </si>
   <si>
     <t>restaurant|kitchen|part</t>
@@ -4600,10 +4669,10 @@
     <t>selection|wine|value|price|champagne|house</t>
   </si>
   <si>
-    <t>vibe|food</t>
-  </si>
-  <si>
-    <t>bread|tastes|pizza|pizza|toppings</t>
+    <t>vibe|food|bit</t>
+  </si>
+  <si>
+    <t>bread|tastes|pizza|pizza|toppings|nyc</t>
   </si>
   <si>
     <t>neighborhood|food</t>
@@ -4612,22 +4681,22 @@
     <t>setting|service|occasion</t>
   </si>
   <si>
-    <t>roll|scallop</t>
-  </si>
-  <si>
-    <t>moules|ravioli</t>
-  </si>
-  <si>
-    <t>maitre</t>
-  </si>
-  <si>
-    <t>dessert|$8.00...just</t>
-  </si>
-  <si>
-    <t>drinks</t>
-  </si>
-  <si>
-    <t>specials</t>
+    <t>|roll|scallop</t>
+  </si>
+  <si>
+    <t>moules|ravioli|lobster</t>
+  </si>
+  <si>
+    <t>d'|maitre</t>
+  </si>
+  <si>
+    <t>|dessert|$8.00!-</t>
+  </si>
+  <si>
+    <t>|drinks</t>
+  </si>
+  <si>
+    <t>chef|specials</t>
   </si>
   <si>
     <t>lounge</t>
@@ -4639,7 +4708,7 @@
     <t>beers|wines</t>
   </si>
   <si>
-    <t>table|bathroom|dinner|orders|toilet</t>
+    <t>waitress|table|bathroom|dinner|orders|toilet</t>
   </si>
   <si>
     <t>service|food</t>
@@ -4651,37 +4720,40 @@
     <t>potatoes|tuna|wasabe</t>
   </si>
   <si>
+    <t>atmosphere|avenue</t>
+  </si>
+  <si>
     <t>pizza|mozzarella|cheese|pizzaria</t>
   </si>
   <si>
     <t>selection|appetizer|complaints</t>
   </si>
   <si>
-    <t>staff|business</t>
-  </si>
-  <si>
-    <t>food|restaurant</t>
+    <t>pie|uws|staff|business</t>
+  </si>
+  <si>
+    <t>salad|food|restaurant</t>
   </si>
   <si>
     <t>quality|dining|restaurant</t>
   </si>
   <si>
-    <t>cheeseburger|excpetiona|chicken|service</t>
+    <t>|cheeseburger|excpetiona|chicken|pot|service</t>
   </si>
   <si>
     <t>food|options|rule</t>
   </si>
   <si>
-    <t>roll|heaven</t>
+    <t>|roll|heaven</t>
   </si>
   <si>
     <t>sake|menu</t>
   </si>
   <si>
-    <t>roll|teriyaki</t>
-  </si>
-  <si>
-    <t>food|experience</t>
+    <t>|roll|teriyaki</t>
+  </si>
+  <si>
+    <t>food|experience|fat</t>
   </si>
   <si>
     <t>selection|wine|list</t>
@@ -4693,7 +4765,10 @@
     <t>decor|boths|side|side|hall</t>
   </si>
   <si>
-    <t>band|atmosphere|jazz</t>
+    <t>|band|atmosphere|jazz</t>
+  </si>
+  <si>
+    <t>meal|nyc</t>
   </si>
   <si>
     <t>food|diamond|balance|herbs|tomatoes|homemade</t>
@@ -4705,34 +4780,40 @@
     <t>husband|tortelini|beers|food|dish</t>
   </si>
   <si>
+    <t>|bagel</t>
+  </si>
+  <si>
     <t>workers|bagel|cream|cheese</t>
   </si>
   <si>
-    <t>frist|cafe|food|service</t>
-  </si>
-  <si>
-    <t>roll|mayo|mayo</t>
-  </si>
-  <si>
-    <t>guests|pizza|fish|chips</t>
-  </si>
-  <si>
-    <t>cafe|service|food</t>
-  </si>
-  <si>
-    <t>chow|chow|oily</t>
+    <t>frist|cafe|st.|food|service</t>
+  </si>
+  <si>
+    <t>roll|lobster|mayo|mayo</t>
+  </si>
+  <si>
+    <t>guests|salad|pizza|fish|chips|fe</t>
+  </si>
+  <si>
+    <t>cafe|st.|service|food</t>
+  </si>
+  <si>
+    <t>|staff</t>
+  </si>
+  <si>
+    <t>chow|fun|chow|oily</t>
   </si>
   <si>
     <t>dumplings|pancakes</t>
   </si>
   <si>
-    <t>thing|service|restaurant</t>
-  </si>
-  <si>
-    <t>sushi|tuna|average|rolls|inside|flavor</t>
-  </si>
-  <si>
-    <t>penang|everything</t>
+    <t>service|restaurant</t>
+  </si>
+  <si>
+    <t>|sushi|tuna|average|rolls|inside|flavor</t>
+  </si>
+  <si>
+    <t>penang|pad</t>
   </si>
   <si>
     <t>price|service</t>
@@ -4741,96 +4822,105 @@
     <t>restaurant|food|course</t>
   </si>
   <si>
-    <t>hats</t>
+    <t>hats|chef</t>
+  </si>
+  <si>
+    <t>fish|pam</t>
+  </si>
+  <si>
+    <t>vibe|lots</t>
+  </si>
+  <si>
+    <t>|ingredients</t>
+  </si>
+  <si>
+    <t>|roll|spicy|tuna</t>
+  </si>
+  <si>
+    <t>yellowtail</t>
+  </si>
+  <si>
+    <t>choices|food|$18!-</t>
+  </si>
+  <si>
+    <t>price|food|service</t>
+  </si>
+  <si>
+    <t>price|$3-6!-</t>
+  </si>
+  <si>
+    <t>takeout|tupperware|quality</t>
+  </si>
+  <si>
+    <t>salad|caesar</t>
+  </si>
+  <si>
+    <t>pasta|dish</t>
+  </si>
+  <si>
+    <t>tiramisu|chocolate|cake</t>
+  </si>
+  <si>
+    <t>visit|manager</t>
+  </si>
+  <si>
+    <t>|dishes|wine|atmosphere</t>
+  </si>
+  <si>
+    <t>place|pizza|pizza</t>
+  </si>
+  <si>
+    <t>mine|goat|cheese|panchetta|raddichio|kind</t>
+  </si>
+  <si>
+    <t>friend|mushroom|pizza</t>
+  </si>
+  <si>
+    <t>beer</t>
+  </si>
+  <si>
+    <t>service|people</t>
+  </si>
+  <si>
+    <t>|tuna|rubber|hanger</t>
+  </si>
+  <si>
+    <t>service|ambience</t>
+  </si>
+  <si>
+    <t>dish|mignon</t>
+  </si>
+  <si>
+    <t>|section|menu</t>
+  </si>
+  <si>
+    <t>place|spot</t>
+  </si>
+  <si>
+    <t>|service|pizza|wine|wine|area|backyard|dining|place</t>
+  </si>
+  <si>
+    <t>|menu|restaurant</t>
+  </si>
+  <si>
+    <t>|wines|$70!-|$30!-</t>
+  </si>
+  <si>
+    <t>service|joint|price|category</t>
+  </si>
+  <si>
+    <t>service|grazie</t>
+  </si>
+  <si>
+    <t>factor|food</t>
+  </si>
+  <si>
+    <t>rosemary|flavoring|orange</t>
   </si>
   <si>
     <t>fish</t>
   </si>
   <si>
-    <t>vibe|lots</t>
-  </si>
-  <si>
-    <t>roll|spicy|tuna</t>
-  </si>
-  <si>
-    <t>yellowtail</t>
-  </si>
-  <si>
-    <t>choices|food|$18</t>
-  </si>
-  <si>
-    <t>price|food|service</t>
-  </si>
-  <si>
-    <t>price|$3-6</t>
-  </si>
-  <si>
-    <t>takeout|tupperware|quality</t>
-  </si>
-  <si>
-    <t>caesar</t>
-  </si>
-  <si>
-    <t>pasta|dish</t>
-  </si>
-  <si>
-    <t>tiramisu|chocolate|cake</t>
-  </si>
-  <si>
-    <t>dishes|wine|atmosphere</t>
-  </si>
-  <si>
-    <t>place|pizza|pizza</t>
-  </si>
-  <si>
-    <t>mine|goat|cheese|panchetta|raddichio|kind</t>
-  </si>
-  <si>
-    <t>friend|mushroom|pizza</t>
-  </si>
-  <si>
-    <t>beer</t>
-  </si>
-  <si>
-    <t>service|people</t>
-  </si>
-  <si>
-    <t>tuna|hanger</t>
-  </si>
-  <si>
-    <t>service|ambience</t>
-  </si>
-  <si>
-    <t>dish|mignon</t>
-  </si>
-  <si>
-    <t>section|menu|nothing</t>
-  </si>
-  <si>
-    <t>place|spot</t>
-  </si>
-  <si>
-    <t>service|pizza|wine|wine|area|backyard|dining|place</t>
-  </si>
-  <si>
-    <t>menu|restaurant</t>
-  </si>
-  <si>
-    <t>wines|$70+</t>
-  </si>
-  <si>
-    <t>service|joint|price|category</t>
-  </si>
-  <si>
-    <t>service|grazie</t>
-  </si>
-  <si>
-    <t>factor|food</t>
-  </si>
-  <si>
-    <t>rosemary|flavoring|orange</t>
-  </si>
-  <si>
     <t>place|staff|wait</t>
   </si>
   <si>
@@ -4843,7 +4933,7 @@
     <t>tuna|tartar|appetizer</t>
   </si>
   <si>
-    <t>family|pizzeria|owners|pizza|blows|families|receipies</t>
+    <t>family|pizzeria|owners|pizza|fornino|blows|families|receipies</t>
   </si>
   <si>
     <t>place|service</t>
@@ -4864,15 +4954,24 @@
     <t>service|staff</t>
   </si>
   <si>
-    <t>service|place|occassion</t>
+    <t>service|place|date|occassion</t>
   </si>
   <si>
     <t>food|menu|price|price|allergies|prixe|fixe|tasting</t>
   </si>
   <si>
+    <t>place|lot|fun</t>
+  </si>
+  <si>
     <t>experience</t>
   </si>
   <si>
+    <t>drinks|way</t>
+  </si>
+  <si>
+    <t>|service</t>
+  </si>
+  <si>
     <t>delivery</t>
   </si>
   <si>
@@ -4885,76 +4984,82 @@
     <t>ambience|service</t>
   </si>
   <si>
-    <t>nothing|atmosphere|establishment</t>
+    <t>|atmosphere|establishment</t>
+  </si>
+  <si>
+    <t>|owner|staff</t>
   </si>
   <si>
     <t>prices|quality</t>
   </si>
   <si>
-    <t>trattoria</t>
-  </si>
-  <si>
-    <t>prices|gods|secret</t>
-  </si>
-  <si>
-    <t>room|secret</t>
-  </si>
-  <si>
-    <t>everytime|food|service|value</t>
-  </si>
-  <si>
-    <t>dessert|bill|chance|order</t>
+    <t>trattoria|top</t>
+  </si>
+  <si>
+    <t>|prices|gods|secret</t>
+  </si>
+  <si>
+    <t>|room|secret</t>
+  </si>
+  <si>
+    <t>food|service|value</t>
+  </si>
+  <si>
+    <t>hostess|waitress</t>
+  </si>
+  <si>
+    <t>dessert|waitress|bill|chance|order</t>
   </si>
   <si>
     <t>place|food</t>
   </si>
   <si>
+    <t>|dishes</t>
+  </si>
+  <si>
     <t>decor|service</t>
   </si>
   <si>
-    <t>times|service</t>
-  </si>
-  <si>
-    <t>group|times</t>
+    <t>svc|group|bit|esp</t>
   </si>
   <si>
     <t>prices</t>
   </si>
   <si>
-    <t>sandwiches|anything|chips|side|$7)</t>
+    <t>sandwiches|chips|side|$7!-</t>
   </si>
   <si>
     <t>experience|desk|atmosphere</t>
   </si>
   <si>
-    <t>cigar|staff</t>
-  </si>
-  <si>
-    <t>service|ambience|outing|group</t>
-  </si>
-  <si>
-    <t>fallback|prices|restaurant</t>
+    <t>bar|cigar|staff|patroon</t>
+  </si>
+  <si>
+    <t>service|ambience|date|outing|group</t>
+  </si>
+  <si>
+    <t>|fallback|prices|restaurant</t>
   </si>
   <si>
     <t>seafood|prices</t>
   </si>
   <si>
-    <t>sandwich|price|$24</t>
-  </si>
-  <si>
-    <t>occassion|sort|candle</t>
-  </si>
-  <si>
-    <t>mark</t>
+    <t>lobster|sandwich|price|$24!-</t>
+  </si>
+  <si>
+    <t>|occassion|sort|candle</t>
+  </si>
+  <si>
+    <t>waiter|mark</t>
   </si>
   <si>
     <t>food|waiters</t>
   </si>
   <si>
-    <t>plate|cheese|bargain|delight|$10.</t>
-  </si>
-  <si>
-    <t>list|wine</t>
+    <t>plate|cheese|bargain|delight|$10!-</t>
+  </si>
+  <si>
+    <t>|list|wine</t>
   </si>
   <si>
     <t>atmosphere|hesititate</t>
@@ -4963,34 +5068,31 @@
     <t>food|deal|place|self</t>
   </si>
   <si>
-    <t>town</t>
-  </si>
-  <si>
-    <t>dont|cafe</t>
-  </si>
-  <si>
-    <t>service|people|thing</t>
-  </si>
-  <si>
-    <t>things|thing|tips</t>
-  </si>
-  <si>
-    <t>model/waitress</t>
+    <t>|town</t>
+  </si>
+  <si>
+    <t>|dont|cafe</t>
+  </si>
+  <si>
+    <t>tips</t>
+  </si>
+  <si>
+    <t>tip|model/waitress|manager</t>
   </si>
   <si>
     <t>staff|cafe|wish|place</t>
   </si>
   <si>
-    <t>ambience|prices|food|fact</t>
+    <t>ambience|prices|fun|food|top|fact</t>
   </si>
   <si>
     <t>experience|customer|service|restaurant</t>
   </si>
   <si>
-    <t>gentleman|table|smile|order</t>
-  </si>
-  <si>
-    <t>reservations|times|name</t>
+    <t>gentleman|manager|table|smile|order</t>
+  </si>
+  <si>
+    <t>reservations|hostess|name</t>
   </si>
   <si>
     <t>weather|table|snag</t>
@@ -4999,16 +5101,22 @@
     <t>staff|bathroom</t>
   </si>
   <si>
-    <t>patrons|closing</t>
+    <t>|patrons|closing</t>
   </si>
   <si>
     <t>staff|company|meal</t>
   </si>
   <si>
+    <t>|patio</t>
+  </si>
+  <si>
+    <t>service|bit</t>
+  </si>
+  <si>
     <t>area|garden|herb</t>
   </si>
   <si>
-    <t>place|points|money.</t>
+    <t>place|points</t>
   </si>
   <si>
     <t>crowd</t>
@@ -5017,13 +5125,13 @@
     <t>price|pizzas</t>
   </si>
   <si>
-    <t>money|guys|outta|money</t>
+    <t>waiter|money|guys|outta</t>
   </si>
   <si>
     <t>staff|wait</t>
   </si>
   <si>
-    <t>sandwiches</t>
+    <t>|sandwiches</t>
   </si>
   <si>
     <t>room|clerks|style|substance|folks</t>
@@ -5032,19 +5140,16 @@
     <t>lawns</t>
   </si>
   <si>
-    <t>anything|service</t>
-  </si>
-  <si>
     <t>place|prices</t>
   </si>
   <si>
-    <t>sandwich|cheese</t>
-  </si>
-  <si>
-    <t>music|isnt</t>
-  </si>
-  <si>
-    <t>atmoshere</t>
+    <t>|sandwich|cheese|manager</t>
+  </si>
+  <si>
+    <t>music|isnt|100 dollar!-</t>
+  </si>
+  <si>
+    <t>atmoshere|bit</t>
   </si>
   <si>
     <t>crew|staff|staff</t>
@@ -5053,34 +5158,37 @@
     <t>food|price</t>
   </si>
   <si>
-    <t>staff|wait|part|beautification|she's-way-cuter-than-me-that-b@#$*</t>
-  </si>
-  <si>
-    <t>part|atmosphere</t>
-  </si>
-  <si>
-    <t>shanty|vanilla|setting|music|mmmm|$8.50</t>
-  </si>
-  <si>
-    <t>taste|music|lady</t>
-  </si>
-  <si>
-    <t>fact|prices</t>
+    <t>staff|wait|part|beautification|fun|way|way|$*!-</t>
+  </si>
+  <si>
+    <t>part|atmosphere|ls|bts</t>
+  </si>
+  <si>
+    <t>shanty|vanilla|setting|music|mmmm|$8.50!-</t>
+  </si>
+  <si>
+    <t>taste|music|dj|lady</t>
+  </si>
+  <si>
+    <t>location|fact|prices</t>
   </si>
   <si>
     <t>feature|terrace</t>
   </si>
   <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>atmosphere|wait|alternative|tables</t>
+    <t>|setting</t>
+  </si>
+  <si>
+    <t>rest|sum</t>
+  </si>
+  <si>
+    <t>sum|atmosphere|wait|gig|alternative|tables</t>
   </si>
   <si>
     <t>service|atmosphere</t>
   </si>
   <si>
-    <t>decor|prices|place</t>
+    <t>decor|prices|place|city</t>
   </si>
   <si>
     <t>management</t>
@@ -5107,10 +5215,7 @@
     <t>measures|liquers|quibbles|bill</t>
   </si>
   <si>
-    <t>restaurant|gimmick|theme</t>
-  </si>
-  <si>
-    <t>thing</t>
+    <t>|restaurant|nyc|gimmick|theme</t>
   </si>
   <si>
     <t>atomosphere|tables</t>
@@ -5122,16 +5227,16 @@
     <t>ceiling|room|dining</t>
   </si>
   <si>
-    <t>place|expectations|money.</t>
+    <t>place|expectations</t>
   </si>
   <si>
     <t>food|wines|selecion|prices</t>
   </si>
   <si>
-    <t>ravioli|everything</t>
-  </si>
-  <si>
-    <t>food|draw</t>
+    <t>ravioli|bit</t>
+  </si>
+  <si>
+    <t>|food|draw</t>
   </si>
   <si>
     <t>design|atmosphere</t>
@@ -5140,7 +5245,7 @@
     <t>bottles|wine</t>
   </si>
   <si>
-    <t>opera|everything|jukebox|strokes</t>
+    <t>|opera|jukebox|strokes</t>
   </si>
   <si>
     <t>drinks|half</t>
@@ -5155,13 +5260,16 @@
     <t>indoor</t>
   </si>
   <si>
+    <t>|decor</t>
+  </si>
+  <si>
     <t>food|prices</t>
   </si>
   <si>
     <t>food|tasting|prices|prices</t>
   </si>
   <si>
-    <t>jazz|point</t>
+    <t>jazz|duo|point</t>
   </si>
   <si>
     <t>music|food|prices|prices|service</t>
@@ -5173,7 +5281,7 @@
     <t>decor|restaurant|food|staff|manhattanite|side|west|prices|clientele|clientele</t>
   </si>
   <si>
-    <t>restaurants|food|wait-staff|service|diner|management</t>
+    <t>restaurants|uws|food|wait-staff|service|diner|management</t>
   </si>
   <si>
     <t>side|service|food</t>
@@ -5185,13 +5293,13 @@
     <t>food|decor|prices|prices</t>
   </si>
   <si>
-    <t>sushi|$20</t>
+    <t>sushi|$20!-</t>
   </si>
   <si>
     <t>scene|character|light|place</t>
   </si>
   <si>
-    <t>fish|chips|$15....</t>
+    <t>fish|chips|$15!-</t>
   </si>
   <si>
     <t>restaurant|friend</t>
@@ -5200,25 +5308,34 @@
     <t>space|kind|alice|wonderland|setting</t>
   </si>
   <si>
-    <t>meal|$60</t>
-  </si>
-  <si>
-    <t>something|atmosphere</t>
-  </si>
-  <si>
-    <t>place|pirces</t>
-  </si>
-  <si>
-    <t>dinner|feet|$400.00</t>
+    <t>meal|$60!-</t>
+  </si>
+  <si>
+    <t>|place|bit</t>
+  </si>
+  <si>
+    <t>im|place|fun|pirces</t>
+  </si>
+  <si>
+    <t>|dinner</t>
+  </si>
+  <si>
+    <t>dinner|feet|$400.00!-</t>
   </si>
   <si>
     <t>area|garden</t>
   </si>
   <si>
-    <t>guacamole|plate|$11</t>
-  </si>
-  <si>
-    <t>water|table|voss|bottles|water|piece|$8</t>
+    <t>guacamole|plate|$11!-</t>
+  </si>
+  <si>
+    <t>water|table|voss|bottles|water|piece|$8!-</t>
+  </si>
+  <si>
+    <t>view|river|nyc</t>
+  </si>
+  <si>
+    <t>|restaurant</t>
   </si>
   <si>
     <t>food|price|people|people</t>
@@ -5227,13 +5344,16 @@
     <t>booths|eachother|couple</t>
   </si>
   <si>
-    <t>prices|view</t>
+    <t>|prices|view</t>
   </si>
   <si>
     <t>bathroom|mens</t>
   </si>
   <si>
-    <t>price|prestige</t>
+    <t>price|prestige|location</t>
+  </si>
+  <si>
+    <t>|boths</t>
   </si>
   <si>
     <t>restaurant|food</t>
@@ -5248,64 +5368,61 @@
     <t>place|value</t>
   </si>
   <si>
-    <t>atmosphere|scheme</t>
-  </si>
-  <si>
-    <t>service|price|dish|$10.</t>
-  </si>
-  <si>
-    <t>thing|decor</t>
+    <t>atmosphere|bit|scheme</t>
+  </si>
+  <si>
+    <t>service|price|dish|$10!-</t>
   </si>
   <si>
     <t>martinis</t>
   </si>
   <si>
-    <t>times|bunch|birthday|friends</t>
-  </si>
-  <si>
-    <t>dinner|wine|$500</t>
+    <t>dj|bunch|birthday|friends</t>
+  </si>
+  <si>
+    <t>dinner|wine|$500!-</t>
   </si>
   <si>
     <t>environment|name</t>
   </si>
   <si>
-    <t>place|whealthy</t>
-  </si>
-  <si>
-    <t>restaurants|landmark</t>
-  </si>
-  <si>
-    <t>environment|guys|wives|escorts</t>
-  </si>
-  <si>
-    <t>service|$500.</t>
-  </si>
-  <si>
-    <t>diners|money</t>
-  </si>
-  <si>
-    <t>drinks|$14</t>
-  </si>
-  <si>
-    <t>dinner|$55</t>
+    <t>place|joe|whealthy</t>
+  </si>
+  <si>
+    <t>|restaurants|landmark</t>
+  </si>
+  <si>
+    <t>environment|lot|guys|wives|escorts</t>
+  </si>
+  <si>
+    <t>|service|$500!-</t>
+  </si>
+  <si>
+    <t>|diners</t>
+  </si>
+  <si>
+    <t>drinks|$14!-</t>
+  </si>
+  <si>
+    <t>dinner|$55!-</t>
   </si>
   <si>
     <t>show|food|wallets|experience|dancers|belly</t>
   </si>
   <si>
-    <t>bill|portion</t>
-  </si>
-  <si>
-    <t>money|money.</t>
+    <t>|bill|portion</t>
+  </si>
+  <si>
+    <t>money</t>
   </si>
   <si>
     <t>side|food</t>
   </si>
   <si>
-    <t>restaurant|feel|price|place|$25),</t>
-  </si>
-  <si>
-    <t>something|food|$</t>
+    <t>restaurant|feel|price|place|$25!-</t>
+  </si>
+  <si>
+    <t>food|$!-</t>
   </si>
   <si>
     <t>buffet|lunch</t>
@@ -5314,25 +5431,28 @@
     <t>dinner|ideal</t>
   </si>
   <si>
-    <t>stone|bowl|$2</t>
-  </si>
-  <si>
-    <t>brasserie|opinion|restaurants</t>
-  </si>
-  <si>
-    <t>deal|party|$29</t>
-  </si>
-  <si>
-    <t>company|point|price|things|brasserie</t>
-  </si>
-  <si>
-    <t>service|$500</t>
-  </si>
-  <si>
-    <t>meat|kimchi|sauces|meal|service</t>
-  </si>
-  <si>
-    <t>bite|salmon|restaurants|salmon|$24</t>
+    <t>stone|bowl|$2!-</t>
+  </si>
+  <si>
+    <t>restaurant|city</t>
+  </si>
+  <si>
+    <t>brasserie|opinion|restaurants|city</t>
+  </si>
+  <si>
+    <t>deal|party|$29!-</t>
+  </si>
+  <si>
+    <t>company|date|point|price|brasserie</t>
+  </si>
+  <si>
+    <t>service|$500!-</t>
+  </si>
+  <si>
+    <t>meat|kimchi|sauces|salad|meal|service</t>
+  </si>
+  <si>
+    <t>bite|salmon|restaurants|salmon|$24!-</t>
   </si>
   <si>
     <t>eggplant</t>
@@ -5341,13 +5461,13 @@
     <t>pricing</t>
   </si>
   <si>
-    <t>service|$60</t>
-  </si>
-  <si>
-    <t>joint|glance|bark</t>
-  </si>
-  <si>
-    <t>restaurant|clients</t>
+    <t>service|$60!-</t>
+  </si>
+  <si>
+    <t>joint|dog|glance|bark</t>
+  </si>
+  <si>
+    <t>restaurant|nyc|clients</t>
   </si>
   <si>
     <t>bread</t>
@@ -5862,10 +5982,10 @@
         <v>1285</v>
       </c>
       <c r="G2" t="s">
-        <v>1089</v>
+        <v>1478</v>
       </c>
       <c r="H2" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5888,10 +6008,10 @@
         <v>1337</v>
       </c>
       <c r="G3" t="s">
-        <v>1462</v>
+        <v>1479</v>
       </c>
       <c r="H3" t="s">
-        <v>1780</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5911,13 +6031,13 @@
         <v>1278</v>
       </c>
       <c r="F4" t="s">
-        <v>1338</v>
+        <v>1278</v>
       </c>
       <c r="G4" t="s">
-        <v>1463</v>
+        <v>933</v>
       </c>
       <c r="H4" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5940,10 +6060,10 @@
         <v>1337</v>
       </c>
       <c r="G5" t="s">
-        <v>1464</v>
+        <v>1480</v>
       </c>
       <c r="H5" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5963,13 +6083,13 @@
         <v>1279</v>
       </c>
       <c r="F6" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G6" t="s">
-        <v>1465</v>
+        <v>1481</v>
       </c>
       <c r="H6" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5989,13 +6109,13 @@
         <v>1276</v>
       </c>
       <c r="F7" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G7" t="s">
-        <v>1466</v>
+        <v>1482</v>
       </c>
       <c r="H7" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6015,13 +6135,13 @@
         <v>1277</v>
       </c>
       <c r="F8" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="G8" t="s">
-        <v>1467</v>
+        <v>1483</v>
       </c>
       <c r="H8" t="s">
-        <v>1783</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6044,10 +6164,10 @@
         <v>1294</v>
       </c>
       <c r="G9" t="s">
-        <v>1468</v>
+        <v>1484</v>
       </c>
       <c r="H9" t="s">
-        <v>1784</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6067,13 +6187,13 @@
         <v>1281</v>
       </c>
       <c r="F10" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G10" t="s">
-        <v>1469</v>
+        <v>1485</v>
       </c>
       <c r="H10" t="s">
-        <v>1784</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6096,10 +6216,10 @@
         <v>1276</v>
       </c>
       <c r="G11" t="s">
-        <v>1470</v>
+        <v>1486</v>
       </c>
       <c r="H11" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6119,13 +6239,13 @@
         <v>1282</v>
       </c>
       <c r="F12" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="G12" t="s">
-        <v>1471</v>
+        <v>1487</v>
       </c>
       <c r="H12" t="s">
-        <v>1783</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6145,13 +6265,13 @@
         <v>1278</v>
       </c>
       <c r="F13" t="s">
-        <v>1344</v>
+        <v>1337</v>
       </c>
       <c r="G13" t="s">
-        <v>1472</v>
+        <v>1488</v>
       </c>
       <c r="H13" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6171,13 +6291,13 @@
         <v>1277</v>
       </c>
       <c r="F14" t="s">
-        <v>1278</v>
+        <v>1343</v>
       </c>
       <c r="G14" t="s">
-        <v>1473</v>
+        <v>1489</v>
       </c>
       <c r="H14" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6197,13 +6317,13 @@
         <v>1283</v>
       </c>
       <c r="F15" t="s">
-        <v>1285</v>
+        <v>1344</v>
       </c>
       <c r="G15" t="s">
-        <v>1474</v>
+        <v>1490</v>
       </c>
       <c r="H15" t="s">
-        <v>1785</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6223,13 +6343,13 @@
         <v>1284</v>
       </c>
       <c r="F16" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G16" t="s">
-        <v>1475</v>
+        <v>1491</v>
       </c>
       <c r="H16" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6252,10 +6372,10 @@
         <v>1345</v>
       </c>
       <c r="G17" t="s">
-        <v>1476</v>
+        <v>1492</v>
       </c>
       <c r="H17" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6275,13 +6395,13 @@
         <v>1276</v>
       </c>
       <c r="F18" t="s">
-        <v>1276</v>
+        <v>1346</v>
       </c>
       <c r="G18" t="s">
-        <v>947</v>
+        <v>1493</v>
       </c>
       <c r="H18" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6301,7 +6421,7 @@
         <v>1278</v>
       </c>
       <c r="H19" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6327,7 +6447,7 @@
         <v>947</v>
       </c>
       <c r="H20" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6353,7 +6473,7 @@
         <v>1120</v>
       </c>
       <c r="H21" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6373,13 +6493,13 @@
         <v>1276</v>
       </c>
       <c r="F22" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="G22" t="s">
-        <v>1477</v>
+        <v>1494</v>
       </c>
       <c r="H22" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6398,11 +6518,14 @@
       <c r="E23" t="s">
         <v>1276</v>
       </c>
+      <c r="F23" t="s">
+        <v>1348</v>
+      </c>
       <c r="G23" t="s">
-        <v>1478</v>
+        <v>1495</v>
       </c>
       <c r="H23" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6428,7 +6551,7 @@
         <v>933</v>
       </c>
       <c r="H24" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6448,13 +6571,13 @@
         <v>1276</v>
       </c>
       <c r="F25" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="G25" t="s">
-        <v>1479</v>
+        <v>1496</v>
       </c>
       <c r="H25" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6474,13 +6597,13 @@
         <v>1278</v>
       </c>
       <c r="F26" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="G26" t="s">
-        <v>1480</v>
+        <v>1497</v>
       </c>
       <c r="H26" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6506,7 +6629,7 @@
         <v>996</v>
       </c>
       <c r="H27" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6526,13 +6649,13 @@
         <v>1278</v>
       </c>
       <c r="F28" t="s">
-        <v>1278</v>
+        <v>1337</v>
       </c>
       <c r="G28" t="s">
-        <v>1481</v>
+        <v>1498</v>
       </c>
       <c r="H28" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6552,13 +6675,13 @@
         <v>1279</v>
       </c>
       <c r="F29" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="G29" t="s">
-        <v>1482</v>
+        <v>1499</v>
       </c>
       <c r="H29" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6578,13 +6701,13 @@
         <v>1284</v>
       </c>
       <c r="F30" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="G30" t="s">
-        <v>1483</v>
+        <v>1500</v>
       </c>
       <c r="H30" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6604,13 +6727,13 @@
         <v>1286</v>
       </c>
       <c r="F31" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="G31" t="s">
-        <v>1484</v>
+        <v>1501</v>
       </c>
       <c r="H31" t="s">
-        <v>1784</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6630,13 +6753,13 @@
         <v>1286</v>
       </c>
       <c r="F32" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="G32" t="s">
-        <v>1485</v>
+        <v>1502</v>
       </c>
       <c r="H32" t="s">
-        <v>1784</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6662,7 +6785,7 @@
         <v>959</v>
       </c>
       <c r="H33" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6688,7 +6811,7 @@
         <v>933</v>
       </c>
       <c r="H34" t="s">
-        <v>1786</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6708,13 +6831,13 @@
         <v>1287</v>
       </c>
       <c r="F35" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="G35" t="s">
-        <v>1486</v>
+        <v>1503</v>
       </c>
       <c r="H35" t="s">
-        <v>1787</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6734,13 +6857,13 @@
         <v>1276</v>
       </c>
       <c r="F36" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="G36" t="s">
-        <v>1487</v>
+        <v>1504</v>
       </c>
       <c r="H36" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6766,7 +6889,7 @@
         <v>962</v>
       </c>
       <c r="H37" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6789,10 +6912,10 @@
         <v>1278</v>
       </c>
       <c r="G38" t="s">
-        <v>933</v>
+        <v>1505</v>
       </c>
       <c r="H38" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6812,13 +6935,13 @@
         <v>1285</v>
       </c>
       <c r="F39" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="G39" t="s">
-        <v>1488</v>
+        <v>1506</v>
       </c>
       <c r="H39" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6838,13 +6961,13 @@
         <v>1285</v>
       </c>
       <c r="F40" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="G40" t="s">
-        <v>1489</v>
+        <v>1507</v>
       </c>
       <c r="H40" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6864,13 +6987,13 @@
         <v>1280</v>
       </c>
       <c r="F41" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="G41" t="s">
-        <v>1490</v>
+        <v>1508</v>
       </c>
       <c r="H41" t="s">
-        <v>1784</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6890,13 +7013,13 @@
         <v>1278</v>
       </c>
       <c r="F42" t="s">
-        <v>1341</v>
+        <v>1360</v>
       </c>
       <c r="G42" t="s">
-        <v>1491</v>
+        <v>1509</v>
       </c>
       <c r="H42" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6916,13 +7039,13 @@
         <v>1285</v>
       </c>
       <c r="F43" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="G43" t="s">
-        <v>1492</v>
+        <v>1510</v>
       </c>
       <c r="H43" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6948,7 +7071,7 @@
         <v>968</v>
       </c>
       <c r="H44" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -6968,13 +7091,13 @@
         <v>1288</v>
       </c>
       <c r="F45" t="s">
-        <v>1341</v>
+        <v>1361</v>
       </c>
       <c r="G45" t="s">
-        <v>1493</v>
+        <v>1511</v>
       </c>
       <c r="H45" t="s">
-        <v>1788</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -6994,13 +7117,13 @@
         <v>1289</v>
       </c>
       <c r="F46" t="s">
-        <v>1358</v>
+        <v>1362</v>
       </c>
       <c r="G46" t="s">
-        <v>1494</v>
+        <v>1512</v>
       </c>
       <c r="H46" t="s">
-        <v>1789</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -7023,10 +7146,10 @@
         <v>1337</v>
       </c>
       <c r="G47" t="s">
-        <v>1495</v>
+        <v>1513</v>
       </c>
       <c r="H47" t="s">
-        <v>1780</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -7052,7 +7175,7 @@
         <v>989</v>
       </c>
       <c r="H48" t="s">
-        <v>1780</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -7075,10 +7198,10 @@
         <v>1337</v>
       </c>
       <c r="G49" t="s">
-        <v>1496</v>
+        <v>1514</v>
       </c>
       <c r="H49" t="s">
-        <v>1790</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -7098,13 +7221,13 @@
         <v>1278</v>
       </c>
       <c r="F50" t="s">
-        <v>1359</v>
+        <v>1363</v>
       </c>
       <c r="G50" t="s">
-        <v>1497</v>
+        <v>1515</v>
       </c>
       <c r="H50" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7124,13 +7247,13 @@
         <v>1282</v>
       </c>
       <c r="F51" t="s">
-        <v>1360</v>
+        <v>1364</v>
       </c>
       <c r="G51" t="s">
-        <v>1498</v>
+        <v>1516</v>
       </c>
       <c r="H51" t="s">
-        <v>1784</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7150,13 +7273,13 @@
         <v>1278</v>
       </c>
       <c r="F52" t="s">
-        <v>1361</v>
+        <v>1365</v>
       </c>
       <c r="G52" t="s">
-        <v>1499</v>
+        <v>1517</v>
       </c>
       <c r="H52" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7176,13 +7299,13 @@
         <v>1277</v>
       </c>
       <c r="F53" t="s">
-        <v>1362</v>
+        <v>1366</v>
       </c>
       <c r="G53" t="s">
-        <v>1500</v>
+        <v>1518</v>
       </c>
       <c r="H53" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7205,10 +7328,10 @@
         <v>1337</v>
       </c>
       <c r="G54" t="s">
-        <v>1501</v>
+        <v>1519</v>
       </c>
       <c r="H54" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7228,13 +7351,13 @@
         <v>1290</v>
       </c>
       <c r="F55" t="s">
-        <v>1363</v>
+        <v>1367</v>
       </c>
       <c r="G55" t="s">
-        <v>1502</v>
+        <v>1520</v>
       </c>
       <c r="H55" t="s">
-        <v>1791</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7254,13 +7377,13 @@
         <v>1291</v>
       </c>
       <c r="F56" t="s">
-        <v>1364</v>
+        <v>1368</v>
       </c>
       <c r="G56" t="s">
-        <v>1503</v>
+        <v>1521</v>
       </c>
       <c r="H56" t="s">
-        <v>1792</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7280,13 +7403,13 @@
         <v>1276</v>
       </c>
       <c r="F57" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="G57" t="s">
-        <v>1504</v>
+        <v>1522</v>
       </c>
       <c r="H57" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7306,13 +7429,13 @@
         <v>1279</v>
       </c>
       <c r="F58" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="G58" t="s">
-        <v>1505</v>
+        <v>1523</v>
       </c>
       <c r="H58" t="s">
-        <v>1793</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7332,13 +7455,13 @@
         <v>1292</v>
       </c>
       <c r="F59" t="s">
-        <v>1365</v>
+        <v>1369</v>
       </c>
       <c r="G59" t="s">
-        <v>1506</v>
+        <v>1524</v>
       </c>
       <c r="H59" t="s">
-        <v>1791</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7358,13 +7481,13 @@
         <v>1276</v>
       </c>
       <c r="F60" t="s">
-        <v>1294</v>
+        <v>1370</v>
       </c>
       <c r="G60" t="s">
-        <v>1507</v>
+        <v>1525</v>
       </c>
       <c r="H60" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7387,10 +7510,10 @@
         <v>1337</v>
       </c>
       <c r="G61" t="s">
-        <v>1508</v>
+        <v>1526</v>
       </c>
       <c r="H61" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7410,13 +7533,13 @@
         <v>1290</v>
       </c>
       <c r="F62" t="s">
-        <v>1366</v>
+        <v>1371</v>
       </c>
       <c r="G62" t="s">
-        <v>1509</v>
+        <v>1527</v>
       </c>
       <c r="H62" t="s">
-        <v>1784</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7436,13 +7559,13 @@
         <v>1276</v>
       </c>
       <c r="F63" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G63" t="s">
-        <v>1510</v>
+        <v>1528</v>
       </c>
       <c r="H63" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7465,10 +7588,10 @@
         <v>1337</v>
       </c>
       <c r="G64" t="s">
-        <v>1511</v>
+        <v>1529</v>
       </c>
       <c r="H64" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7494,7 +7617,7 @@
         <v>947</v>
       </c>
       <c r="H65" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7520,7 +7643,7 @@
         <v>987</v>
       </c>
       <c r="H66" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7543,10 +7666,10 @@
         <v>1278</v>
       </c>
       <c r="G67" t="s">
-        <v>989</v>
+        <v>1530</v>
       </c>
       <c r="H67" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7566,13 +7689,13 @@
         <v>1294</v>
       </c>
       <c r="F68" t="s">
-        <v>1278</v>
+        <v>1343</v>
       </c>
       <c r="G68" t="s">
-        <v>989</v>
+        <v>1531</v>
       </c>
       <c r="H68" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7592,13 +7715,13 @@
         <v>1295</v>
       </c>
       <c r="F69" t="s">
-        <v>1352</v>
+        <v>1372</v>
       </c>
       <c r="G69" t="s">
-        <v>1512</v>
+        <v>1532</v>
       </c>
       <c r="H69" t="s">
-        <v>1780</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7618,13 +7741,13 @@
         <v>1278</v>
       </c>
       <c r="F70" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="G70" t="s">
-        <v>1513</v>
+        <v>1533</v>
       </c>
       <c r="H70" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7644,13 +7767,13 @@
         <v>1277</v>
       </c>
       <c r="F71" t="s">
-        <v>1341</v>
+        <v>1360</v>
       </c>
       <c r="G71" t="s">
-        <v>1514</v>
+        <v>1534</v>
       </c>
       <c r="H71" t="s">
-        <v>1780</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7670,13 +7793,13 @@
         <v>1296</v>
       </c>
       <c r="F72" t="s">
-        <v>1278</v>
+        <v>1341</v>
       </c>
       <c r="G72" t="s">
-        <v>933</v>
+        <v>1535</v>
       </c>
       <c r="H72" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7702,7 +7825,7 @@
         <v>947</v>
       </c>
       <c r="H73" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7722,13 +7845,13 @@
         <v>1284</v>
       </c>
       <c r="F74" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="G74" t="s">
-        <v>1515</v>
+        <v>1536</v>
       </c>
       <c r="H74" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7751,10 +7874,10 @@
         <v>1276</v>
       </c>
       <c r="G75" t="s">
-        <v>985</v>
+        <v>1537</v>
       </c>
       <c r="H75" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7774,13 +7897,13 @@
         <v>1285</v>
       </c>
       <c r="F76" t="s">
-        <v>1285</v>
+        <v>1373</v>
       </c>
       <c r="G76" t="s">
-        <v>995</v>
+        <v>1538</v>
       </c>
       <c r="H76" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -7800,13 +7923,13 @@
         <v>1278</v>
       </c>
       <c r="F77" t="s">
-        <v>1350</v>
+        <v>1374</v>
       </c>
       <c r="G77" t="s">
-        <v>1516</v>
+        <v>1539</v>
       </c>
       <c r="H77" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7826,13 +7949,13 @@
         <v>1289</v>
       </c>
       <c r="F78" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="G78" t="s">
-        <v>1517</v>
+        <v>1540</v>
       </c>
       <c r="H78" t="s">
-        <v>1794</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7855,10 +7978,10 @@
         <v>1337</v>
       </c>
       <c r="G79" t="s">
-        <v>1518</v>
+        <v>1541</v>
       </c>
       <c r="H79" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7884,7 +8007,7 @@
         <v>933</v>
       </c>
       <c r="H80" t="s">
-        <v>1784</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -7907,10 +8030,10 @@
         <v>1337</v>
       </c>
       <c r="G81" t="s">
-        <v>1519</v>
+        <v>1542</v>
       </c>
       <c r="H81" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -7936,7 +8059,7 @@
         <v>1065</v>
       </c>
       <c r="H82" t="s">
-        <v>1793</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -7962,7 +8085,7 @@
         <v>933</v>
       </c>
       <c r="H83" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -7982,13 +8105,13 @@
         <v>1278</v>
       </c>
       <c r="F84" t="s">
-        <v>1338</v>
+        <v>1375</v>
       </c>
       <c r="G84" t="s">
-        <v>1520</v>
+        <v>1543</v>
       </c>
       <c r="H84" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -8008,13 +8131,13 @@
         <v>1282</v>
       </c>
       <c r="F85" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="G85" t="s">
-        <v>1521</v>
+        <v>1544</v>
       </c>
       <c r="H85" t="s">
-        <v>1795</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -8037,10 +8160,10 @@
         <v>1278</v>
       </c>
       <c r="G86" t="s">
-        <v>1522</v>
+        <v>1545</v>
       </c>
       <c r="H86" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -8060,13 +8183,13 @@
         <v>1285</v>
       </c>
       <c r="F87" t="s">
-        <v>1362</v>
+        <v>1366</v>
       </c>
       <c r="G87" t="s">
-        <v>1523</v>
+        <v>1546</v>
       </c>
       <c r="H87" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -8086,13 +8209,13 @@
         <v>1284</v>
       </c>
       <c r="F88" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="G88" t="s">
-        <v>1524</v>
+        <v>1547</v>
       </c>
       <c r="H88" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -8112,13 +8235,13 @@
         <v>1278</v>
       </c>
       <c r="F89" t="s">
-        <v>1337</v>
+        <v>1365</v>
       </c>
       <c r="G89" t="s">
-        <v>1525</v>
+        <v>1548</v>
       </c>
       <c r="H89" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8138,13 +8261,13 @@
         <v>1298</v>
       </c>
       <c r="F90" t="s">
-        <v>1367</v>
+        <v>1376</v>
       </c>
       <c r="G90" t="s">
-        <v>1526</v>
+        <v>1549</v>
       </c>
       <c r="H90" t="s">
-        <v>1786</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8164,13 +8287,13 @@
         <v>1286</v>
       </c>
       <c r="F91" t="s">
-        <v>1368</v>
+        <v>1377</v>
       </c>
       <c r="G91" t="s">
-        <v>1527</v>
+        <v>1550</v>
       </c>
       <c r="H91" t="s">
-        <v>1784</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8190,13 +8313,13 @@
         <v>1299</v>
       </c>
       <c r="F92" t="s">
-        <v>1362</v>
+        <v>1378</v>
       </c>
       <c r="G92" t="s">
-        <v>1528</v>
+        <v>1551</v>
       </c>
       <c r="H92" t="s">
-        <v>1796</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8216,13 +8339,13 @@
         <v>1277</v>
       </c>
       <c r="F93" t="s">
-        <v>1369</v>
+        <v>1340</v>
       </c>
       <c r="G93" t="s">
-        <v>1529</v>
+        <v>1552</v>
       </c>
       <c r="H93" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8242,13 +8365,13 @@
         <v>1289</v>
       </c>
       <c r="F94" t="s">
-        <v>1362</v>
+        <v>1366</v>
       </c>
       <c r="G94" t="s">
-        <v>1530</v>
+        <v>1553</v>
       </c>
       <c r="H94" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8268,13 +8391,13 @@
         <v>1300</v>
       </c>
       <c r="F95" t="s">
-        <v>1370</v>
+        <v>1379</v>
       </c>
       <c r="G95" t="s">
-        <v>1531</v>
+        <v>1554</v>
       </c>
       <c r="H95" t="s">
-        <v>1784</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8294,13 +8417,13 @@
         <v>1278</v>
       </c>
       <c r="F96" t="s">
-        <v>1371</v>
+        <v>1380</v>
       </c>
       <c r="G96" t="s">
-        <v>1532</v>
+        <v>1555</v>
       </c>
       <c r="H96" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8320,13 +8443,13 @@
         <v>1277</v>
       </c>
       <c r="F97" t="s">
-        <v>1337</v>
+        <v>1360</v>
       </c>
       <c r="G97" t="s">
-        <v>1533</v>
+        <v>1556</v>
       </c>
       <c r="H97" t="s">
-        <v>1786</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8346,13 +8469,13 @@
         <v>1276</v>
       </c>
       <c r="F98" t="s">
-        <v>1285</v>
+        <v>1343</v>
       </c>
       <c r="G98" t="s">
-        <v>1534</v>
+        <v>1557</v>
       </c>
       <c r="H98" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8372,13 +8495,13 @@
         <v>1279</v>
       </c>
       <c r="F99" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="G99" t="s">
-        <v>1535</v>
+        <v>1558</v>
       </c>
       <c r="H99" t="s">
-        <v>1780</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8401,10 +8524,10 @@
         <v>1278</v>
       </c>
       <c r="G100" t="s">
-        <v>1536</v>
+        <v>1559</v>
       </c>
       <c r="H100" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8424,13 +8547,13 @@
         <v>1278</v>
       </c>
       <c r="F101" t="s">
-        <v>1278</v>
+        <v>1337</v>
       </c>
       <c r="G101" t="s">
-        <v>1537</v>
+        <v>1560</v>
       </c>
       <c r="H101" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8453,10 +8576,10 @@
         <v>1285</v>
       </c>
       <c r="G102" t="s">
-        <v>1538</v>
+        <v>1561</v>
       </c>
       <c r="H102" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8482,7 +8605,7 @@
         <v>968</v>
       </c>
       <c r="H103" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8502,13 +8625,13 @@
         <v>1277</v>
       </c>
       <c r="F104" t="s">
-        <v>1361</v>
+        <v>1365</v>
       </c>
       <c r="G104" t="s">
-        <v>1539</v>
+        <v>1562</v>
       </c>
       <c r="H104" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8534,7 +8657,7 @@
         <v>931</v>
       </c>
       <c r="H105" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8557,10 +8680,10 @@
         <v>1337</v>
       </c>
       <c r="G106" t="s">
-        <v>1540</v>
+        <v>1563</v>
       </c>
       <c r="H106" t="s">
-        <v>1784</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8580,13 +8703,13 @@
         <v>1276</v>
       </c>
       <c r="F107" t="s">
-        <v>1372</v>
+        <v>1381</v>
       </c>
       <c r="G107" t="s">
-        <v>1541</v>
+        <v>1564</v>
       </c>
       <c r="H107" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8606,13 +8729,13 @@
         <v>1296</v>
       </c>
       <c r="F108" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="G108" t="s">
-        <v>1542</v>
+        <v>1565</v>
       </c>
       <c r="H108" t="s">
-        <v>1797</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8632,10 +8755,10 @@
         <v>1298</v>
       </c>
       <c r="G109" t="s">
-        <v>1543</v>
+        <v>1566</v>
       </c>
       <c r="H109" t="s">
-        <v>1784</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8661,7 +8784,7 @@
         <v>1025</v>
       </c>
       <c r="H110" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8687,7 +8810,7 @@
         <v>933</v>
       </c>
       <c r="H111" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8707,13 +8830,13 @@
         <v>1277</v>
       </c>
       <c r="F112" t="s">
-        <v>1373</v>
+        <v>1382</v>
       </c>
       <c r="G112" t="s">
-        <v>1544</v>
+        <v>1567</v>
       </c>
       <c r="H112" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8733,13 +8856,13 @@
         <v>1285</v>
       </c>
       <c r="F113" t="s">
-        <v>1285</v>
+        <v>1383</v>
       </c>
       <c r="G113" t="s">
-        <v>1065</v>
+        <v>1568</v>
       </c>
       <c r="H113" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8765,7 +8888,7 @@
         <v>947</v>
       </c>
       <c r="H114" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8785,13 +8908,13 @@
         <v>1296</v>
       </c>
       <c r="F115" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G115" t="s">
-        <v>1542</v>
+        <v>1565</v>
       </c>
       <c r="H115" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -8811,13 +8934,13 @@
         <v>1277</v>
       </c>
       <c r="F116" t="s">
-        <v>1374</v>
+        <v>1384</v>
       </c>
       <c r="G116" t="s">
-        <v>1545</v>
+        <v>1569</v>
       </c>
       <c r="H116" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8837,13 +8960,13 @@
         <v>1278</v>
       </c>
       <c r="F117" t="s">
-        <v>1375</v>
+        <v>1385</v>
       </c>
       <c r="G117" t="s">
-        <v>1546</v>
+        <v>1570</v>
       </c>
       <c r="H117" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8863,13 +8986,13 @@
         <v>1296</v>
       </c>
       <c r="F118" t="s">
-        <v>1376</v>
+        <v>1386</v>
       </c>
       <c r="G118" t="s">
-        <v>1547</v>
+        <v>1571</v>
       </c>
       <c r="H118" t="s">
-        <v>1794</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -8889,13 +9012,13 @@
         <v>1278</v>
       </c>
       <c r="F119" t="s">
-        <v>1337</v>
+        <v>1360</v>
       </c>
       <c r="G119" t="s">
-        <v>1548</v>
+        <v>1572</v>
       </c>
       <c r="H119" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -8915,13 +9038,13 @@
         <v>1278</v>
       </c>
       <c r="F120" t="s">
-        <v>1361</v>
+        <v>1365</v>
       </c>
       <c r="G120" t="s">
-        <v>1549</v>
+        <v>1573</v>
       </c>
       <c r="H120" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -8941,13 +9064,13 @@
         <v>1301</v>
       </c>
       <c r="F121" t="s">
-        <v>1377</v>
+        <v>1387</v>
       </c>
       <c r="G121" t="s">
-        <v>1550</v>
+        <v>1574</v>
       </c>
       <c r="H121" t="s">
-        <v>1791</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -8973,7 +9096,7 @@
         <v>931</v>
       </c>
       <c r="H122" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -8993,13 +9116,13 @@
         <v>1278</v>
       </c>
       <c r="F123" t="s">
-        <v>1378</v>
+        <v>1388</v>
       </c>
       <c r="G123" t="s">
-        <v>1551</v>
+        <v>1575</v>
       </c>
       <c r="H123" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -9025,7 +9148,7 @@
         <v>1035</v>
       </c>
       <c r="H124" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -9045,13 +9168,13 @@
         <v>1278</v>
       </c>
       <c r="F125" t="s">
-        <v>1371</v>
+        <v>1380</v>
       </c>
       <c r="G125" t="s">
-        <v>1552</v>
+        <v>1576</v>
       </c>
       <c r="H125" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -9074,10 +9197,10 @@
         <v>1337</v>
       </c>
       <c r="G126" t="s">
-        <v>1553</v>
+        <v>1577</v>
       </c>
       <c r="H126" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -9097,13 +9220,13 @@
         <v>1277</v>
       </c>
       <c r="F127" t="s">
-        <v>1371</v>
+        <v>1380</v>
       </c>
       <c r="G127" t="s">
-        <v>1554</v>
+        <v>1578</v>
       </c>
       <c r="H127" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -9129,7 +9252,7 @@
         <v>947</v>
       </c>
       <c r="H128" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -9149,13 +9272,13 @@
         <v>1277</v>
       </c>
       <c r="F129" t="s">
-        <v>1350</v>
+        <v>1389</v>
       </c>
       <c r="G129" t="s">
-        <v>1555</v>
+        <v>1579</v>
       </c>
       <c r="H129" t="s">
-        <v>1786</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -9175,13 +9298,13 @@
         <v>1277</v>
       </c>
       <c r="F130" t="s">
-        <v>1375</v>
+        <v>1385</v>
       </c>
       <c r="G130" t="s">
-        <v>1556</v>
+        <v>1580</v>
       </c>
       <c r="H130" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -9201,13 +9324,13 @@
         <v>1298</v>
       </c>
       <c r="F131" t="s">
-        <v>1379</v>
+        <v>1390</v>
       </c>
       <c r="G131" t="s">
-        <v>1557</v>
+        <v>1581</v>
       </c>
       <c r="H131" t="s">
-        <v>1786</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -9233,7 +9356,7 @@
         <v>1240</v>
       </c>
       <c r="H132" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -9259,7 +9382,7 @@
         <v>933</v>
       </c>
       <c r="H133" t="s">
-        <v>1786</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9279,13 +9402,13 @@
         <v>1298</v>
       </c>
       <c r="F134" t="s">
-        <v>1380</v>
+        <v>1391</v>
       </c>
       <c r="G134" t="s">
-        <v>1558</v>
+        <v>1582</v>
       </c>
       <c r="H134" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9305,13 +9428,13 @@
         <v>1298</v>
       </c>
       <c r="F135" t="s">
-        <v>1381</v>
+        <v>1392</v>
       </c>
       <c r="G135" t="s">
-        <v>1559</v>
+        <v>1583</v>
       </c>
       <c r="H135" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -9331,13 +9454,13 @@
         <v>1278</v>
       </c>
       <c r="F136" t="s">
-        <v>1278</v>
+        <v>1337</v>
       </c>
       <c r="G136" t="s">
-        <v>1046</v>
+        <v>1584</v>
       </c>
       <c r="H136" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9357,13 +9480,13 @@
         <v>1277</v>
       </c>
       <c r="F137" t="s">
-        <v>1382</v>
+        <v>1393</v>
       </c>
       <c r="G137" t="s">
-        <v>1560</v>
+        <v>1585</v>
       </c>
       <c r="H137" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9389,7 +9512,7 @@
         <v>1025</v>
       </c>
       <c r="H138" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9409,13 +9532,13 @@
         <v>1298</v>
       </c>
       <c r="F139" t="s">
-        <v>1367</v>
+        <v>1376</v>
       </c>
       <c r="G139" t="s">
-        <v>1561</v>
+        <v>1586</v>
       </c>
       <c r="H139" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9435,13 +9558,13 @@
         <v>1282</v>
       </c>
       <c r="F140" t="s">
-        <v>1383</v>
+        <v>1394</v>
       </c>
       <c r="G140" t="s">
-        <v>1562</v>
+        <v>1587</v>
       </c>
       <c r="H140" t="s">
-        <v>1784</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9464,10 +9587,10 @@
         <v>1278</v>
       </c>
       <c r="G141" t="s">
-        <v>1050</v>
+        <v>1588</v>
       </c>
       <c r="H141" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9487,13 +9610,13 @@
         <v>1278</v>
       </c>
       <c r="F142" t="s">
-        <v>1384</v>
+        <v>1395</v>
       </c>
       <c r="G142" t="s">
-        <v>1563</v>
+        <v>1589</v>
       </c>
       <c r="H142" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9513,13 +9636,13 @@
         <v>1284</v>
       </c>
       <c r="F143" t="s">
-        <v>1385</v>
+        <v>1396</v>
       </c>
       <c r="G143" t="s">
-        <v>1564</v>
+        <v>1590</v>
       </c>
       <c r="H143" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9539,13 +9662,13 @@
         <v>1277</v>
       </c>
       <c r="F144" t="s">
-        <v>1361</v>
+        <v>1397</v>
       </c>
       <c r="G144" t="s">
-        <v>1565</v>
+        <v>1591</v>
       </c>
       <c r="H144" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9565,13 +9688,13 @@
         <v>1282</v>
       </c>
       <c r="F145" t="s">
-        <v>1384</v>
+        <v>1398</v>
       </c>
       <c r="G145" t="s">
-        <v>1566</v>
+        <v>1592</v>
       </c>
       <c r="H145" t="s">
-        <v>1784</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9591,13 +9714,13 @@
         <v>1302</v>
       </c>
       <c r="F146" t="s">
-        <v>1386</v>
+        <v>1399</v>
       </c>
       <c r="G146" t="s">
-        <v>1567</v>
+        <v>1593</v>
       </c>
       <c r="H146" t="s">
-        <v>1784</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9620,10 +9743,10 @@
         <v>1276</v>
       </c>
       <c r="G147" t="s">
-        <v>931</v>
+        <v>1594</v>
       </c>
       <c r="H147" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9643,13 +9766,13 @@
         <v>1278</v>
       </c>
       <c r="F148" t="s">
-        <v>1341</v>
+        <v>1400</v>
       </c>
       <c r="G148" t="s">
-        <v>1568</v>
+        <v>1595</v>
       </c>
       <c r="H148" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9672,10 +9795,10 @@
         <v>1337</v>
       </c>
       <c r="G149" t="s">
-        <v>1569</v>
+        <v>1596</v>
       </c>
       <c r="H149" t="s">
-        <v>1798</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9695,13 +9818,13 @@
         <v>1276</v>
       </c>
       <c r="F150" t="s">
-        <v>1370</v>
+        <v>1341</v>
       </c>
       <c r="G150" t="s">
-        <v>1570</v>
+        <v>1597</v>
       </c>
       <c r="H150" t="s">
-        <v>1786</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9721,13 +9844,13 @@
         <v>1303</v>
       </c>
       <c r="F151" t="s">
-        <v>1387</v>
+        <v>1401</v>
       </c>
       <c r="G151" t="s">
-        <v>1571</v>
+        <v>1598</v>
       </c>
       <c r="H151" t="s">
-        <v>1799</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9747,13 +9870,13 @@
         <v>1277</v>
       </c>
       <c r="F152" t="s">
-        <v>1388</v>
+        <v>1402</v>
       </c>
       <c r="G152" t="s">
-        <v>1572</v>
+        <v>1599</v>
       </c>
       <c r="H152" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -9773,13 +9896,13 @@
         <v>1304</v>
       </c>
       <c r="F153" t="s">
-        <v>1389</v>
+        <v>1403</v>
       </c>
       <c r="G153" t="s">
-        <v>1573</v>
+        <v>1600</v>
       </c>
       <c r="H153" t="s">
-        <v>1786</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -9799,13 +9922,13 @@
         <v>1278</v>
       </c>
       <c r="F154" t="s">
-        <v>1367</v>
+        <v>1376</v>
       </c>
       <c r="G154" t="s">
-        <v>1574</v>
+        <v>1601</v>
       </c>
       <c r="H154" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9825,13 +9948,13 @@
         <v>1278</v>
       </c>
       <c r="F155" t="s">
-        <v>1278</v>
+        <v>1337</v>
       </c>
       <c r="G155" t="s">
-        <v>1575</v>
+        <v>1602</v>
       </c>
       <c r="H155" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9857,7 +9980,7 @@
         <v>1062</v>
       </c>
       <c r="H156" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9877,13 +10000,13 @@
         <v>1278</v>
       </c>
       <c r="F157" t="s">
-        <v>1278</v>
+        <v>1404</v>
       </c>
       <c r="G157" t="s">
-        <v>1576</v>
+        <v>1603</v>
       </c>
       <c r="H157" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -9903,13 +10026,13 @@
         <v>1285</v>
       </c>
       <c r="F158" t="s">
-        <v>1390</v>
+        <v>1383</v>
       </c>
       <c r="G158" t="s">
-        <v>1577</v>
+        <v>1604</v>
       </c>
       <c r="H158" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -9935,7 +10058,7 @@
         <v>1065</v>
       </c>
       <c r="H159" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -9961,7 +10084,7 @@
         <v>1095</v>
       </c>
       <c r="H160" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -9987,7 +10110,7 @@
         <v>1062</v>
       </c>
       <c r="H161" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -10013,7 +10136,7 @@
         <v>1062</v>
       </c>
       <c r="H162" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -10036,10 +10159,10 @@
         <v>1278</v>
       </c>
       <c r="G163" t="s">
-        <v>976</v>
+        <v>1605</v>
       </c>
       <c r="H163" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -10065,7 +10188,7 @@
         <v>996</v>
       </c>
       <c r="H164" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -10085,13 +10208,13 @@
         <v>1286</v>
       </c>
       <c r="F165" t="s">
-        <v>1361</v>
+        <v>1365</v>
       </c>
       <c r="G165" t="s">
-        <v>1578</v>
+        <v>1606</v>
       </c>
       <c r="H165" t="s">
-        <v>1784</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -10114,10 +10237,10 @@
         <v>1278</v>
       </c>
       <c r="G166" t="s">
-        <v>1579</v>
+        <v>1607</v>
       </c>
       <c r="H166" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -10137,13 +10260,13 @@
         <v>1279</v>
       </c>
       <c r="F167" t="s">
-        <v>1359</v>
+        <v>1363</v>
       </c>
       <c r="G167" t="s">
-        <v>1580</v>
+        <v>1608</v>
       </c>
       <c r="H167" t="s">
-        <v>1780</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -10163,13 +10286,13 @@
         <v>1305</v>
       </c>
       <c r="F168" t="s">
-        <v>1375</v>
+        <v>1385</v>
       </c>
       <c r="G168" t="s">
-        <v>1581</v>
+        <v>1609</v>
       </c>
       <c r="H168" t="s">
-        <v>1791</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -10195,7 +10318,7 @@
         <v>1065</v>
       </c>
       <c r="H169" t="s">
-        <v>1794</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -10215,13 +10338,13 @@
         <v>1306</v>
       </c>
       <c r="F170" t="s">
-        <v>1391</v>
+        <v>1405</v>
       </c>
       <c r="G170" t="s">
-        <v>1582</v>
+        <v>1610</v>
       </c>
       <c r="H170" t="s">
-        <v>1791</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -10241,13 +10364,13 @@
         <v>1276</v>
       </c>
       <c r="F171" t="s">
-        <v>1359</v>
+        <v>1363</v>
       </c>
       <c r="G171" t="s">
-        <v>1583</v>
+        <v>1611</v>
       </c>
       <c r="H171" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -10267,13 +10390,13 @@
         <v>1277</v>
       </c>
       <c r="F172" t="s">
-        <v>1278</v>
+        <v>1337</v>
       </c>
       <c r="G172" t="s">
-        <v>1584</v>
+        <v>1612</v>
       </c>
       <c r="H172" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -10296,10 +10419,10 @@
         <v>1337</v>
       </c>
       <c r="G173" t="s">
-        <v>1585</v>
+        <v>1613</v>
       </c>
       <c r="H173" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -10319,13 +10442,13 @@
         <v>1277</v>
       </c>
       <c r="F174" t="s">
-        <v>1341</v>
+        <v>1360</v>
       </c>
       <c r="G174" t="s">
-        <v>1586</v>
+        <v>1614</v>
       </c>
       <c r="H174" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -10345,13 +10468,13 @@
         <v>1307</v>
       </c>
       <c r="F175" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="G175" t="s">
-        <v>1517</v>
+        <v>1540</v>
       </c>
       <c r="H175" t="s">
-        <v>1784</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -10371,13 +10494,13 @@
         <v>1276</v>
       </c>
       <c r="F176" t="s">
-        <v>1276</v>
+        <v>1349</v>
       </c>
       <c r="G176" t="s">
-        <v>1470</v>
+        <v>1615</v>
       </c>
       <c r="H176" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10397,13 +10520,13 @@
         <v>1284</v>
       </c>
       <c r="F177" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="G177" t="s">
-        <v>1524</v>
+        <v>1547</v>
       </c>
       <c r="H177" t="s">
-        <v>1789</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10423,13 +10546,13 @@
         <v>1308</v>
       </c>
       <c r="F178" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="G178" t="s">
-        <v>1524</v>
+        <v>1547</v>
       </c>
       <c r="H178" t="s">
-        <v>1800</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10449,13 +10572,13 @@
         <v>1309</v>
       </c>
       <c r="F179" t="s">
-        <v>1367</v>
+        <v>1376</v>
       </c>
       <c r="G179" t="s">
-        <v>1587</v>
+        <v>1616</v>
       </c>
       <c r="H179" t="s">
-        <v>1791</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10475,13 +10598,13 @@
         <v>1293</v>
       </c>
       <c r="F180" t="s">
-        <v>1344</v>
+        <v>1406</v>
       </c>
       <c r="G180" t="s">
-        <v>1588</v>
+        <v>1617</v>
       </c>
       <c r="H180" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10501,13 +10624,13 @@
         <v>1277</v>
       </c>
       <c r="F181" t="s">
-        <v>1392</v>
+        <v>1407</v>
       </c>
       <c r="G181" t="s">
-        <v>1589</v>
+        <v>1618</v>
       </c>
       <c r="H181" t="s">
-        <v>1794</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10527,13 +10650,13 @@
         <v>1278</v>
       </c>
       <c r="F182" t="s">
-        <v>1393</v>
+        <v>1408</v>
       </c>
       <c r="G182" t="s">
-        <v>1590</v>
+        <v>1619</v>
       </c>
       <c r="H182" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10559,7 +10682,7 @@
         <v>1086</v>
       </c>
       <c r="H183" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10582,10 +10705,10 @@
         <v>1278</v>
       </c>
       <c r="G184" t="s">
-        <v>1591</v>
+        <v>1620</v>
       </c>
       <c r="H184" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10605,13 +10728,13 @@
         <v>1310</v>
       </c>
       <c r="F185" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G185" t="s">
-        <v>1592</v>
+        <v>1621</v>
       </c>
       <c r="H185" t="s">
-        <v>1794</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10637,7 +10760,7 @@
         <v>1089</v>
       </c>
       <c r="H186" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10663,7 +10786,7 @@
         <v>933</v>
       </c>
       <c r="H187" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10689,7 +10812,7 @@
         <v>989</v>
       </c>
       <c r="H188" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10715,7 +10838,7 @@
         <v>1095</v>
       </c>
       <c r="H189" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10741,7 +10864,7 @@
         <v>933</v>
       </c>
       <c r="H190" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10761,13 +10884,13 @@
         <v>1277</v>
       </c>
       <c r="F191" t="s">
-        <v>1338</v>
+        <v>1376</v>
       </c>
       <c r="G191" t="s">
-        <v>1593</v>
+        <v>1622</v>
       </c>
       <c r="H191" t="s">
-        <v>1780</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -10787,13 +10910,13 @@
         <v>1311</v>
       </c>
       <c r="F192" t="s">
-        <v>1394</v>
+        <v>1409</v>
       </c>
       <c r="G192" t="s">
-        <v>1594</v>
+        <v>1623</v>
       </c>
       <c r="H192" t="s">
-        <v>1780</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -10813,13 +10936,13 @@
         <v>1284</v>
       </c>
       <c r="F193" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="G193" t="s">
-        <v>1524</v>
+        <v>1547</v>
       </c>
       <c r="H193" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10842,10 +10965,10 @@
         <v>1337</v>
       </c>
       <c r="G194" t="s">
-        <v>1595</v>
+        <v>1624</v>
       </c>
       <c r="H194" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -10871,7 +10994,7 @@
         <v>968</v>
       </c>
       <c r="H195" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -10897,7 +11020,7 @@
         <v>1095</v>
       </c>
       <c r="H196" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -10923,7 +11046,7 @@
         <v>996</v>
       </c>
       <c r="H197" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -10943,7 +11066,7 @@
         <v>1297</v>
       </c>
       <c r="H198" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -10963,13 +11086,13 @@
         <v>1278</v>
       </c>
       <c r="F199" t="s">
-        <v>1395</v>
+        <v>1366</v>
       </c>
       <c r="G199" t="s">
-        <v>1596</v>
+        <v>1625</v>
       </c>
       <c r="H199" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -10995,7 +11118,7 @@
         <v>1046</v>
       </c>
       <c r="H200" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -11015,13 +11138,13 @@
         <v>1285</v>
       </c>
       <c r="F201" t="s">
-        <v>1390</v>
+        <v>1383</v>
       </c>
       <c r="G201" t="s">
-        <v>1597</v>
+        <v>1626</v>
       </c>
       <c r="H201" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -11041,13 +11164,13 @@
         <v>1309</v>
       </c>
       <c r="F202" t="s">
-        <v>1396</v>
+        <v>1410</v>
       </c>
       <c r="G202" t="s">
-        <v>1598</v>
+        <v>1627</v>
       </c>
       <c r="H202" t="s">
-        <v>1791</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -11073,7 +11196,7 @@
         <v>1089</v>
       </c>
       <c r="H203" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -11096,10 +11219,10 @@
         <v>1337</v>
       </c>
       <c r="G204" t="s">
-        <v>1599</v>
+        <v>1628</v>
       </c>
       <c r="H204" t="s">
-        <v>1797</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -11119,13 +11242,13 @@
         <v>1279</v>
       </c>
       <c r="F205" t="s">
-        <v>1352</v>
+        <v>1372</v>
       </c>
       <c r="G205" t="s">
-        <v>1600</v>
+        <v>1629</v>
       </c>
       <c r="H205" t="s">
-        <v>1780</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -11145,13 +11268,13 @@
         <v>1276</v>
       </c>
       <c r="F206" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="G206" t="s">
-        <v>1601</v>
+        <v>1630</v>
       </c>
       <c r="H206" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -11171,13 +11294,13 @@
         <v>1276</v>
       </c>
       <c r="F207" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G207" t="s">
-        <v>1602</v>
+        <v>1631</v>
       </c>
       <c r="H207" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -11197,13 +11320,13 @@
         <v>1278</v>
       </c>
       <c r="F208" t="s">
-        <v>1371</v>
+        <v>1380</v>
       </c>
       <c r="G208" t="s">
-        <v>1603</v>
+        <v>1632</v>
       </c>
       <c r="H208" t="s">
-        <v>1786</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -11223,13 +11346,13 @@
         <v>1277</v>
       </c>
       <c r="F209" t="s">
-        <v>1341</v>
+        <v>1360</v>
       </c>
       <c r="G209" t="s">
-        <v>1604</v>
+        <v>1633</v>
       </c>
       <c r="H209" t="s">
-        <v>1780</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -11252,10 +11375,10 @@
         <v>1278</v>
       </c>
       <c r="G210" t="s">
-        <v>1576</v>
+        <v>1634</v>
       </c>
       <c r="H210" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -11275,13 +11398,13 @@
         <v>1311</v>
       </c>
       <c r="F211" t="s">
-        <v>1397</v>
+        <v>1411</v>
       </c>
       <c r="G211" t="s">
-        <v>1605</v>
+        <v>1635</v>
       </c>
       <c r="H211" t="s">
-        <v>1801</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11301,13 +11424,13 @@
         <v>1278</v>
       </c>
       <c r="F212" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G212" t="s">
-        <v>1606</v>
+        <v>1636</v>
       </c>
       <c r="H212" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -11333,7 +11456,7 @@
         <v>1106</v>
       </c>
       <c r="H213" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -11353,13 +11476,13 @@
         <v>1296</v>
       </c>
       <c r="F214" t="s">
-        <v>1398</v>
+        <v>1412</v>
       </c>
       <c r="G214" t="s">
-        <v>1607</v>
+        <v>1637</v>
       </c>
       <c r="H214" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11379,13 +11502,13 @@
         <v>1278</v>
       </c>
       <c r="F215" t="s">
-        <v>1341</v>
+        <v>1360</v>
       </c>
       <c r="G215" t="s">
-        <v>1608</v>
+        <v>1638</v>
       </c>
       <c r="H215" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11405,13 +11528,13 @@
         <v>1278</v>
       </c>
       <c r="F216" t="s">
-        <v>1399</v>
+        <v>1413</v>
       </c>
       <c r="G216" t="s">
-        <v>1609</v>
+        <v>1639</v>
       </c>
       <c r="H216" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11431,13 +11554,13 @@
         <v>1311</v>
       </c>
       <c r="F217" t="s">
-        <v>1400</v>
+        <v>1346</v>
       </c>
       <c r="G217" t="s">
-        <v>1610</v>
+        <v>1640</v>
       </c>
       <c r="H217" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11457,13 +11580,13 @@
         <v>1281</v>
       </c>
       <c r="F218" t="s">
-        <v>1401</v>
+        <v>1414</v>
       </c>
       <c r="G218" t="s">
-        <v>1611</v>
+        <v>1641</v>
       </c>
       <c r="H218" t="s">
-        <v>1784</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11483,13 +11606,13 @@
         <v>1285</v>
       </c>
       <c r="F219" t="s">
-        <v>1344</v>
+        <v>1406</v>
       </c>
       <c r="G219" t="s">
-        <v>1612</v>
+        <v>1642</v>
       </c>
       <c r="H219" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11509,13 +11632,13 @@
         <v>1310</v>
       </c>
       <c r="F220" t="s">
-        <v>1393</v>
+        <v>1408</v>
       </c>
       <c r="G220" t="s">
-        <v>1613</v>
+        <v>1643</v>
       </c>
       <c r="H220" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11535,13 +11658,13 @@
         <v>1313</v>
       </c>
       <c r="F221" t="s">
-        <v>1402</v>
+        <v>1415</v>
       </c>
       <c r="G221" t="s">
-        <v>1614</v>
+        <v>1644</v>
       </c>
       <c r="H221" t="s">
-        <v>1784</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11561,13 +11684,13 @@
         <v>1276</v>
       </c>
       <c r="F222" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="G222" t="s">
-        <v>1615</v>
+        <v>1645</v>
       </c>
       <c r="H222" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11587,13 +11710,13 @@
         <v>1311</v>
       </c>
       <c r="F223" t="s">
-        <v>1403</v>
+        <v>1416</v>
       </c>
       <c r="G223" t="s">
-        <v>1616</v>
+        <v>1646</v>
       </c>
       <c r="H223" t="s">
-        <v>1802</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11613,13 +11736,13 @@
         <v>1314</v>
       </c>
       <c r="F224" t="s">
-        <v>1404</v>
+        <v>1417</v>
       </c>
       <c r="G224" t="s">
-        <v>1617</v>
+        <v>1647</v>
       </c>
       <c r="H224" t="s">
-        <v>1803</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11645,7 +11768,7 @@
         <v>1089</v>
       </c>
       <c r="H225" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11668,10 +11791,10 @@
         <v>1276</v>
       </c>
       <c r="G226" t="s">
-        <v>931</v>
+        <v>1594</v>
       </c>
       <c r="H226" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11691,13 +11814,13 @@
         <v>1285</v>
       </c>
       <c r="F227" t="s">
-        <v>1285</v>
+        <v>1392</v>
       </c>
       <c r="G227" t="s">
-        <v>1089</v>
+        <v>1648</v>
       </c>
       <c r="H227" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11720,10 +11843,10 @@
         <v>1276</v>
       </c>
       <c r="G228" t="s">
-        <v>1618</v>
+        <v>1649</v>
       </c>
       <c r="H228" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11749,7 +11872,7 @@
         <v>947</v>
       </c>
       <c r="H229" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -11769,13 +11892,13 @@
         <v>1294</v>
       </c>
       <c r="F230" t="s">
-        <v>1278</v>
+        <v>1343</v>
       </c>
       <c r="G230" t="s">
-        <v>1536</v>
+        <v>1650</v>
       </c>
       <c r="H230" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -11798,10 +11921,10 @@
         <v>1276</v>
       </c>
       <c r="G231" t="s">
-        <v>947</v>
+        <v>1651</v>
       </c>
       <c r="H231" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -11824,10 +11947,10 @@
         <v>1294</v>
       </c>
       <c r="G232" t="s">
-        <v>1619</v>
+        <v>1652</v>
       </c>
       <c r="H232" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -11847,13 +11970,13 @@
         <v>1315</v>
       </c>
       <c r="F233" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="G233" t="s">
-        <v>1620</v>
+        <v>1653</v>
       </c>
       <c r="H233" t="s">
-        <v>1780</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11873,13 +11996,13 @@
         <v>1285</v>
       </c>
       <c r="F234" t="s">
-        <v>1405</v>
+        <v>1373</v>
       </c>
       <c r="G234" t="s">
-        <v>1621</v>
+        <v>1654</v>
       </c>
       <c r="H234" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -11899,13 +12022,13 @@
         <v>1300</v>
       </c>
       <c r="F235" t="s">
-        <v>1400</v>
+        <v>1346</v>
       </c>
       <c r="G235" t="s">
-        <v>1622</v>
+        <v>1655</v>
       </c>
       <c r="H235" t="s">
-        <v>1786</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -11925,13 +12048,13 @@
         <v>1285</v>
       </c>
       <c r="F236" t="s">
-        <v>1406</v>
+        <v>1383</v>
       </c>
       <c r="G236" t="s">
-        <v>1623</v>
+        <v>1656</v>
       </c>
       <c r="H236" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -11951,13 +12074,13 @@
         <v>1285</v>
       </c>
       <c r="F237" t="s">
-        <v>1276</v>
+        <v>1346</v>
       </c>
       <c r="G237" t="s">
-        <v>931</v>
+        <v>1657</v>
       </c>
       <c r="H237" t="s">
-        <v>1784</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -11977,13 +12100,13 @@
         <v>1316</v>
       </c>
       <c r="F238" t="s">
-        <v>1391</v>
+        <v>1405</v>
       </c>
       <c r="G238" t="s">
-        <v>1624</v>
+        <v>1658</v>
       </c>
       <c r="H238" t="s">
-        <v>1784</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -12003,13 +12126,13 @@
         <v>1285</v>
       </c>
       <c r="F239" t="s">
-        <v>1278</v>
+        <v>1352</v>
       </c>
       <c r="G239" t="s">
-        <v>1625</v>
+        <v>1659</v>
       </c>
       <c r="H239" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -12029,13 +12152,13 @@
         <v>1317</v>
       </c>
       <c r="F240" t="s">
-        <v>1361</v>
+        <v>1365</v>
       </c>
       <c r="G240" t="s">
-        <v>1626</v>
+        <v>1660</v>
       </c>
       <c r="H240" t="s">
-        <v>1791</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -12055,13 +12178,13 @@
         <v>1285</v>
       </c>
       <c r="F241" t="s">
-        <v>1362</v>
+        <v>1366</v>
       </c>
       <c r="G241" t="s">
-        <v>1627</v>
+        <v>1661</v>
       </c>
       <c r="H241" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -12081,13 +12204,13 @@
         <v>1318</v>
       </c>
       <c r="F242" t="s">
-        <v>1407</v>
+        <v>1418</v>
       </c>
       <c r="G242" t="s">
-        <v>1628</v>
+        <v>1662</v>
       </c>
       <c r="H242" t="s">
-        <v>1784</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -12113,7 +12236,7 @@
         <v>947</v>
       </c>
       <c r="H243" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -12139,7 +12262,7 @@
         <v>931</v>
       </c>
       <c r="H244" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -12165,7 +12288,7 @@
         <v>947</v>
       </c>
       <c r="H245" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -12191,7 +12314,7 @@
         <v>931</v>
       </c>
       <c r="H246" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -12210,8 +12333,14 @@
       <c r="E247" t="s">
         <v>1310</v>
       </c>
+      <c r="F247" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G247" t="s">
+        <v>1663</v>
+      </c>
       <c r="H247" t="s">
-        <v>1780</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -12231,13 +12360,13 @@
         <v>1276</v>
       </c>
       <c r="F248" t="s">
-        <v>1408</v>
+        <v>1419</v>
       </c>
       <c r="G248" t="s">
-        <v>1629</v>
+        <v>1664</v>
       </c>
       <c r="H248" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -12257,13 +12386,13 @@
         <v>1305</v>
       </c>
       <c r="F249" t="s">
-        <v>1362</v>
+        <v>1366</v>
       </c>
       <c r="G249" t="s">
-        <v>1630</v>
+        <v>1665</v>
       </c>
       <c r="H249" t="s">
-        <v>1785</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -12286,10 +12415,10 @@
         <v>1278</v>
       </c>
       <c r="G250" t="s">
-        <v>959</v>
+        <v>1666</v>
       </c>
       <c r="H250" t="s">
-        <v>1780</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -12309,13 +12438,13 @@
         <v>1300</v>
       </c>
       <c r="F251" t="s">
-        <v>1400</v>
+        <v>1346</v>
       </c>
       <c r="G251" t="s">
-        <v>1631</v>
+        <v>1667</v>
       </c>
       <c r="H251" t="s">
-        <v>1786</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -12341,7 +12470,7 @@
         <v>1132</v>
       </c>
       <c r="H252" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -12361,13 +12490,13 @@
         <v>1276</v>
       </c>
       <c r="F253" t="s">
-        <v>1400</v>
+        <v>1276</v>
       </c>
       <c r="G253" t="s">
-        <v>1632</v>
+        <v>947</v>
       </c>
       <c r="H253" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -12393,7 +12522,7 @@
         <v>947</v>
       </c>
       <c r="H254" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12413,13 +12542,13 @@
         <v>1276</v>
       </c>
       <c r="F255" t="s">
-        <v>1338</v>
+        <v>1420</v>
       </c>
       <c r="G255" t="s">
-        <v>1633</v>
+        <v>1668</v>
       </c>
       <c r="H255" t="s">
-        <v>1794</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12442,10 +12571,10 @@
         <v>1294</v>
       </c>
       <c r="G256" t="s">
-        <v>1634</v>
+        <v>1669</v>
       </c>
       <c r="H256" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12468,10 +12597,10 @@
         <v>1337</v>
       </c>
       <c r="G257" t="s">
-        <v>1462</v>
+        <v>1479</v>
       </c>
       <c r="H257" t="s">
-        <v>1784</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12491,13 +12620,13 @@
         <v>1279</v>
       </c>
       <c r="F258" t="s">
-        <v>1409</v>
+        <v>1421</v>
       </c>
       <c r="G258" t="s">
-        <v>1635</v>
+        <v>1670</v>
       </c>
       <c r="H258" t="s">
-        <v>1780</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12517,13 +12646,13 @@
         <v>1285</v>
       </c>
       <c r="F259" t="s">
-        <v>1410</v>
+        <v>1422</v>
       </c>
       <c r="G259" t="s">
-        <v>1636</v>
+        <v>1671</v>
       </c>
       <c r="H259" t="s">
-        <v>1786</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12546,10 +12675,10 @@
         <v>1294</v>
       </c>
       <c r="G260" t="s">
-        <v>1634</v>
+        <v>1669</v>
       </c>
       <c r="H260" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12575,7 +12704,7 @@
         <v>1138</v>
       </c>
       <c r="H261" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12601,7 +12730,7 @@
         <v>968</v>
       </c>
       <c r="H262" t="s">
-        <v>1780</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12621,13 +12750,13 @@
         <v>1300</v>
       </c>
       <c r="F263" t="s">
-        <v>1350</v>
+        <v>1423</v>
       </c>
       <c r="G263" t="s">
-        <v>1637</v>
+        <v>1672</v>
       </c>
       <c r="H263" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12653,7 +12782,7 @@
         <v>1160</v>
       </c>
       <c r="H264" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12673,13 +12802,13 @@
         <v>1311</v>
       </c>
       <c r="F265" t="s">
-        <v>1365</v>
+        <v>1424</v>
       </c>
       <c r="G265" t="s">
-        <v>1638</v>
+        <v>1673</v>
       </c>
       <c r="H265" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12699,13 +12828,13 @@
         <v>1294</v>
       </c>
       <c r="F266" t="s">
-        <v>1411</v>
+        <v>1425</v>
       </c>
       <c r="G266" t="s">
-        <v>1639</v>
+        <v>1674</v>
       </c>
       <c r="H266" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12725,13 +12854,13 @@
         <v>1279</v>
       </c>
       <c r="F267" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="G267" t="s">
-        <v>1640</v>
+        <v>1675</v>
       </c>
       <c r="H267" t="s">
-        <v>1786</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12751,13 +12880,13 @@
         <v>1286</v>
       </c>
       <c r="F268" t="s">
-        <v>1412</v>
+        <v>1426</v>
       </c>
       <c r="G268" t="s">
-        <v>1641</v>
+        <v>1676</v>
       </c>
       <c r="H268" t="s">
-        <v>1790</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -12777,13 +12906,13 @@
         <v>1276</v>
       </c>
       <c r="F269" t="s">
-        <v>1413</v>
+        <v>1427</v>
       </c>
       <c r="G269" t="s">
-        <v>1642</v>
+        <v>1677</v>
       </c>
       <c r="H269" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -12803,13 +12932,13 @@
         <v>1276</v>
       </c>
       <c r="F270" t="s">
-        <v>1294</v>
+        <v>1370</v>
       </c>
       <c r="G270" t="s">
-        <v>1643</v>
+        <v>1678</v>
       </c>
       <c r="H270" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -12829,13 +12958,13 @@
         <v>1304</v>
       </c>
       <c r="F271" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="G271" t="s">
-        <v>1644</v>
+        <v>1679</v>
       </c>
       <c r="H271" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12855,13 +12984,13 @@
         <v>1286</v>
       </c>
       <c r="F272" t="s">
-        <v>1414</v>
+        <v>1428</v>
       </c>
       <c r="G272" t="s">
-        <v>1645</v>
+        <v>1680</v>
       </c>
       <c r="H272" t="s">
-        <v>1784</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12881,13 +13010,13 @@
         <v>1279</v>
       </c>
       <c r="F273" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G273" t="s">
-        <v>1646</v>
+        <v>1681</v>
       </c>
       <c r="H273" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -12907,13 +13036,13 @@
         <v>1285</v>
       </c>
       <c r="F274" t="s">
-        <v>1415</v>
+        <v>1344</v>
       </c>
       <c r="G274" t="s">
-        <v>1647</v>
+        <v>1682</v>
       </c>
       <c r="H274" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -12933,13 +13062,13 @@
         <v>1319</v>
       </c>
       <c r="F275" t="s">
-        <v>1416</v>
+        <v>1429</v>
       </c>
       <c r="G275" t="s">
-        <v>1648</v>
+        <v>1683</v>
       </c>
       <c r="H275" t="s">
-        <v>1784</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -12962,10 +13091,10 @@
         <v>1285</v>
       </c>
       <c r="G276" t="s">
-        <v>1649</v>
+        <v>1684</v>
       </c>
       <c r="H276" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -12988,10 +13117,10 @@
         <v>1337</v>
       </c>
       <c r="G277" t="s">
-        <v>1650</v>
+        <v>1685</v>
       </c>
       <c r="H277" t="s">
-        <v>1794</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -13011,13 +13140,13 @@
         <v>1276</v>
       </c>
       <c r="F278" t="s">
-        <v>1393</v>
+        <v>1341</v>
       </c>
       <c r="G278" t="s">
-        <v>1651</v>
+        <v>1621</v>
       </c>
       <c r="H278" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -13036,8 +13165,14 @@
       <c r="E279" t="s">
         <v>1276</v>
       </c>
+      <c r="F279" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G279" t="s">
+        <v>1022</v>
+      </c>
       <c r="H279" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -13057,13 +13192,13 @@
         <v>1276</v>
       </c>
       <c r="F280" t="s">
-        <v>1341</v>
+        <v>1278</v>
       </c>
       <c r="G280" t="s">
-        <v>1652</v>
+        <v>1686</v>
       </c>
       <c r="H280" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -13082,11 +13217,14 @@
       <c r="E281" t="s">
         <v>1276</v>
       </c>
+      <c r="F281" t="s">
+        <v>1430</v>
+      </c>
       <c r="G281" t="s">
-        <v>1653</v>
+        <v>1687</v>
       </c>
       <c r="H281" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -13106,13 +13244,13 @@
         <v>1276</v>
       </c>
       <c r="F282" t="s">
-        <v>1417</v>
+        <v>1431</v>
       </c>
       <c r="G282" t="s">
-        <v>1654</v>
+        <v>1688</v>
       </c>
       <c r="H282" t="s">
-        <v>1794</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -13138,7 +13276,7 @@
         <v>1211</v>
       </c>
       <c r="H283" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -13158,13 +13296,13 @@
         <v>1320</v>
       </c>
       <c r="F284" t="s">
-        <v>1418</v>
+        <v>1432</v>
       </c>
       <c r="G284" t="s">
-        <v>1655</v>
+        <v>1689</v>
       </c>
       <c r="H284" t="s">
-        <v>1784</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -13184,13 +13322,13 @@
         <v>1276</v>
       </c>
       <c r="F285" t="s">
-        <v>1419</v>
+        <v>1433</v>
       </c>
       <c r="G285" t="s">
-        <v>1656</v>
+        <v>1690</v>
       </c>
       <c r="H285" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -13210,13 +13348,13 @@
         <v>1276</v>
       </c>
       <c r="F286" t="s">
-        <v>1420</v>
+        <v>1434</v>
       </c>
       <c r="G286" t="s">
-        <v>1657</v>
+        <v>1691</v>
       </c>
       <c r="H286" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -13242,7 +13380,7 @@
         <v>933</v>
       </c>
       <c r="H287" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -13262,13 +13400,13 @@
         <v>1276</v>
       </c>
       <c r="F288" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="G288" t="s">
-        <v>1658</v>
+        <v>1692</v>
       </c>
       <c r="H288" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -13288,13 +13426,13 @@
         <v>1285</v>
       </c>
       <c r="F289" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="G289" t="s">
-        <v>1659</v>
+        <v>1693</v>
       </c>
       <c r="H289" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -13314,13 +13452,13 @@
         <v>1321</v>
       </c>
       <c r="F290" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G290" t="s">
-        <v>1660</v>
+        <v>1694</v>
       </c>
       <c r="H290" t="s">
-        <v>1790</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -13340,13 +13478,13 @@
         <v>1276</v>
       </c>
       <c r="F291" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="G291" t="s">
-        <v>1661</v>
+        <v>1695</v>
       </c>
       <c r="H291" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13366,13 +13504,13 @@
         <v>1276</v>
       </c>
       <c r="F292" t="s">
-        <v>1423</v>
+        <v>1435</v>
       </c>
       <c r="G292" t="s">
-        <v>1662</v>
+        <v>1696</v>
       </c>
       <c r="H292" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -13395,10 +13533,10 @@
         <v>1278</v>
       </c>
       <c r="G293" t="s">
-        <v>1199</v>
+        <v>1697</v>
       </c>
       <c r="H293" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -13424,7 +13562,7 @@
         <v>1089</v>
       </c>
       <c r="H294" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13444,13 +13582,13 @@
         <v>1276</v>
       </c>
       <c r="F295" t="s">
-        <v>1276</v>
+        <v>1409</v>
       </c>
       <c r="G295" t="s">
-        <v>947</v>
+        <v>1698</v>
       </c>
       <c r="H295" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13476,7 +13614,7 @@
         <v>947</v>
       </c>
       <c r="H296" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13496,13 +13634,13 @@
         <v>1285</v>
       </c>
       <c r="F297" t="s">
-        <v>1344</v>
+        <v>1406</v>
       </c>
       <c r="G297" t="s">
-        <v>1663</v>
+        <v>1699</v>
       </c>
       <c r="H297" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13522,13 +13660,13 @@
         <v>1294</v>
       </c>
       <c r="F298" t="s">
-        <v>1424</v>
+        <v>1366</v>
       </c>
       <c r="G298" t="s">
-        <v>1664</v>
+        <v>1700</v>
       </c>
       <c r="H298" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13554,7 +13692,7 @@
         <v>947</v>
       </c>
       <c r="H299" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13573,8 +13711,14 @@
       <c r="E300" t="s">
         <v>1276</v>
       </c>
+      <c r="F300" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G300" t="s">
+        <v>951</v>
+      </c>
       <c r="H300" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13597,10 +13741,10 @@
         <v>1285</v>
       </c>
       <c r="G301" t="s">
-        <v>1665</v>
+        <v>1701</v>
       </c>
       <c r="H301" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13620,13 +13764,13 @@
         <v>1279</v>
       </c>
       <c r="F302" t="s">
-        <v>1371</v>
+        <v>1380</v>
       </c>
       <c r="G302" t="s">
-        <v>1666</v>
+        <v>1702</v>
       </c>
       <c r="H302" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13646,13 +13790,13 @@
         <v>1276</v>
       </c>
       <c r="F303" t="s">
-        <v>1425</v>
+        <v>1433</v>
       </c>
       <c r="G303" t="s">
-        <v>1667</v>
+        <v>1703</v>
       </c>
       <c r="H303" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13678,7 +13822,7 @@
         <v>1000</v>
       </c>
       <c r="H304" t="s">
-        <v>1780</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13704,7 +13848,7 @@
         <v>933</v>
       </c>
       <c r="H305" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13724,13 +13868,13 @@
         <v>1276</v>
       </c>
       <c r="F306" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="G306" t="s">
-        <v>1668</v>
+        <v>1704</v>
       </c>
       <c r="H306" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -13756,7 +13900,7 @@
         <v>947</v>
       </c>
       <c r="H307" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -13779,10 +13923,10 @@
         <v>1278</v>
       </c>
       <c r="G308" t="s">
-        <v>1669</v>
+        <v>1705</v>
       </c>
       <c r="H308" t="s">
-        <v>1780</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -13802,13 +13946,13 @@
         <v>1300</v>
       </c>
       <c r="F309" t="s">
-        <v>1426</v>
+        <v>1436</v>
       </c>
       <c r="G309" t="s">
-        <v>1670</v>
+        <v>1706</v>
       </c>
       <c r="H309" t="s">
-        <v>1783</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -13834,7 +13978,7 @@
         <v>1089</v>
       </c>
       <c r="H310" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -13857,10 +14001,10 @@
         <v>1278</v>
       </c>
       <c r="G311" t="s">
-        <v>1671</v>
+        <v>1707</v>
       </c>
       <c r="H311" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -13886,7 +14030,7 @@
         <v>1089</v>
       </c>
       <c r="H312" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -13906,13 +14050,13 @@
         <v>1276</v>
       </c>
       <c r="F313" t="s">
-        <v>1350</v>
+        <v>1276</v>
       </c>
       <c r="G313" t="s">
-        <v>1672</v>
+        <v>947</v>
       </c>
       <c r="H313" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -13938,7 +14082,7 @@
         <v>947</v>
       </c>
       <c r="H314" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -13958,13 +14102,13 @@
         <v>1294</v>
       </c>
       <c r="F315" t="s">
-        <v>1405</v>
+        <v>1373</v>
       </c>
       <c r="G315" t="s">
-        <v>1673</v>
+        <v>1708</v>
       </c>
       <c r="H315" t="s">
-        <v>1780</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -13984,13 +14128,13 @@
         <v>1276</v>
       </c>
       <c r="F316" t="s">
-        <v>1337</v>
+        <v>1347</v>
       </c>
       <c r="G316" t="s">
-        <v>1674</v>
+        <v>1709</v>
       </c>
       <c r="H316" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -14016,7 +14160,7 @@
         <v>947</v>
       </c>
       <c r="H317" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -14042,7 +14186,7 @@
         <v>933</v>
       </c>
       <c r="H318" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -14061,8 +14205,14 @@
       <c r="E319" t="s">
         <v>1285</v>
       </c>
+      <c r="F319" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G319" t="s">
+        <v>1171</v>
+      </c>
       <c r="H319" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -14088,7 +14238,7 @@
         <v>1089</v>
       </c>
       <c r="H320" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -14108,13 +14258,13 @@
         <v>1315</v>
       </c>
       <c r="F321" t="s">
-        <v>1427</v>
+        <v>1437</v>
       </c>
       <c r="G321" t="s">
-        <v>1675</v>
+        <v>1710</v>
       </c>
       <c r="H321" t="s">
-        <v>1780</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -14133,11 +14283,14 @@
       <c r="E322" t="s">
         <v>1285</v>
       </c>
+      <c r="F322" t="s">
+        <v>1402</v>
+      </c>
       <c r="G322" t="s">
-        <v>1676</v>
+        <v>1711</v>
       </c>
       <c r="H322" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -14157,13 +14310,13 @@
         <v>1310</v>
       </c>
       <c r="F323" t="s">
-        <v>1428</v>
+        <v>1438</v>
       </c>
       <c r="G323" t="s">
-        <v>1677</v>
+        <v>1712</v>
       </c>
       <c r="H323" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -14183,13 +14336,13 @@
         <v>1279</v>
       </c>
       <c r="F324" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="G324" t="s">
-        <v>1678</v>
+        <v>1713</v>
       </c>
       <c r="H324" t="s">
-        <v>1789</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -14215,7 +14368,7 @@
         <v>947</v>
       </c>
       <c r="H325" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -14241,7 +14394,7 @@
         <v>1089</v>
       </c>
       <c r="H326" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -14261,13 +14414,13 @@
         <v>1276</v>
       </c>
       <c r="F327" t="s">
-        <v>1429</v>
+        <v>1439</v>
       </c>
       <c r="G327" t="s">
-        <v>1679</v>
+        <v>1714</v>
       </c>
       <c r="H327" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -14287,13 +14440,13 @@
         <v>1285</v>
       </c>
       <c r="F328" t="s">
-        <v>1390</v>
+        <v>1440</v>
       </c>
       <c r="G328" t="s">
-        <v>1680</v>
+        <v>1715</v>
       </c>
       <c r="H328" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -14313,13 +14466,13 @@
         <v>1323</v>
       </c>
       <c r="F329" t="s">
-        <v>1430</v>
+        <v>1441</v>
       </c>
       <c r="G329" t="s">
-        <v>1681</v>
+        <v>1716</v>
       </c>
       <c r="H329" t="s">
-        <v>1804</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14339,13 +14492,13 @@
         <v>1285</v>
       </c>
       <c r="F330" t="s">
-        <v>1341</v>
+        <v>1400</v>
       </c>
       <c r="G330" t="s">
-        <v>1682</v>
+        <v>1717</v>
       </c>
       <c r="H330" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -14365,13 +14518,13 @@
         <v>1297</v>
       </c>
       <c r="F331" t="s">
-        <v>1405</v>
+        <v>1442</v>
       </c>
       <c r="G331" t="s">
-        <v>1683</v>
+        <v>1718</v>
       </c>
       <c r="H331" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14391,13 +14544,13 @@
         <v>1285</v>
       </c>
       <c r="F332" t="s">
-        <v>1390</v>
+        <v>1383</v>
       </c>
       <c r="G332" t="s">
-        <v>1684</v>
+        <v>1719</v>
       </c>
       <c r="H332" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -14420,10 +14573,10 @@
         <v>1276</v>
       </c>
       <c r="G333" t="s">
-        <v>931</v>
+        <v>1594</v>
       </c>
       <c r="H333" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14446,10 +14599,10 @@
         <v>1285</v>
       </c>
       <c r="G334" t="s">
-        <v>1180</v>
+        <v>1720</v>
       </c>
       <c r="H334" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14469,13 +14622,13 @@
         <v>1322</v>
       </c>
       <c r="F335" t="s">
-        <v>1278</v>
+        <v>1354</v>
       </c>
       <c r="G335" t="s">
-        <v>1685</v>
+        <v>1721</v>
       </c>
       <c r="H335" t="s">
-        <v>1794</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14495,13 +14648,13 @@
         <v>1311</v>
       </c>
       <c r="F336" t="s">
-        <v>1431</v>
+        <v>1443</v>
       </c>
       <c r="G336" t="s">
-        <v>1686</v>
+        <v>1722</v>
       </c>
       <c r="H336" t="s">
-        <v>1783</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14521,13 +14674,13 @@
         <v>1311</v>
       </c>
       <c r="F337" t="s">
-        <v>1394</v>
+        <v>1409</v>
       </c>
       <c r="G337" t="s">
-        <v>1687</v>
+        <v>1723</v>
       </c>
       <c r="H337" t="s">
-        <v>1789</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14547,13 +14700,13 @@
         <v>1297</v>
       </c>
       <c r="F338" t="s">
-        <v>1432</v>
+        <v>1444</v>
       </c>
       <c r="G338" t="s">
-        <v>1688</v>
+        <v>1724</v>
       </c>
       <c r="H338" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14579,7 +14732,7 @@
         <v>1089</v>
       </c>
       <c r="H339" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14602,10 +14755,10 @@
         <v>1294</v>
       </c>
       <c r="G340" t="s">
-        <v>1689</v>
+        <v>1725</v>
       </c>
       <c r="H340" t="s">
-        <v>1780</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14625,13 +14778,13 @@
         <v>1317</v>
       </c>
       <c r="F341" t="s">
-        <v>1371</v>
+        <v>1380</v>
       </c>
       <c r="G341" t="s">
-        <v>1690</v>
+        <v>1726</v>
       </c>
       <c r="H341" t="s">
-        <v>1805</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14657,7 +14810,7 @@
         <v>947</v>
       </c>
       <c r="H342" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14677,13 +14830,13 @@
         <v>1300</v>
       </c>
       <c r="F343" t="s">
-        <v>1433</v>
+        <v>1445</v>
       </c>
       <c r="G343" t="s">
-        <v>1691</v>
+        <v>1727</v>
       </c>
       <c r="H343" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14703,13 +14856,13 @@
         <v>1324</v>
       </c>
       <c r="F344" t="s">
-        <v>1434</v>
+        <v>1446</v>
       </c>
       <c r="G344" t="s">
-        <v>1692</v>
+        <v>1728</v>
       </c>
       <c r="H344" t="s">
-        <v>1784</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -14729,13 +14882,13 @@
         <v>1279</v>
       </c>
       <c r="F345" t="s">
-        <v>1435</v>
+        <v>1447</v>
       </c>
       <c r="G345" t="s">
-        <v>1693</v>
+        <v>1729</v>
       </c>
       <c r="H345" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -14761,7 +14914,7 @@
         <v>1089</v>
       </c>
       <c r="H346" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -14781,13 +14934,13 @@
         <v>1276</v>
       </c>
       <c r="F347" t="s">
-        <v>1423</v>
+        <v>1435</v>
       </c>
       <c r="G347" t="s">
-        <v>1694</v>
+        <v>1730</v>
       </c>
       <c r="H347" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -14806,8 +14959,14 @@
       <c r="E348" t="s">
         <v>1276</v>
       </c>
+      <c r="F348" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G348" t="s">
+        <v>951</v>
+      </c>
       <c r="H348" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14833,7 +14992,7 @@
         <v>1089</v>
       </c>
       <c r="H349" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -14853,13 +15012,13 @@
         <v>1276</v>
       </c>
       <c r="F350" t="s">
-        <v>1436</v>
+        <v>1448</v>
       </c>
       <c r="G350" t="s">
-        <v>1695</v>
+        <v>1731</v>
       </c>
       <c r="H350" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -14879,13 +15038,13 @@
         <v>1279</v>
       </c>
       <c r="F351" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G351" t="s">
-        <v>1646</v>
+        <v>1681</v>
       </c>
       <c r="H351" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -14905,13 +15064,13 @@
         <v>1322</v>
       </c>
       <c r="F352" t="s">
-        <v>1437</v>
+        <v>1449</v>
       </c>
       <c r="G352" t="s">
-        <v>1696</v>
+        <v>1732</v>
       </c>
       <c r="H352" t="s">
-        <v>1793</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -14931,13 +15090,13 @@
         <v>1285</v>
       </c>
       <c r="F353" t="s">
-        <v>1438</v>
+        <v>1450</v>
       </c>
       <c r="G353" t="s">
-        <v>1697</v>
+        <v>1733</v>
       </c>
       <c r="H353" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -14956,14 +15115,8 @@
       <c r="E354" t="s">
         <v>1276</v>
       </c>
-      <c r="F354" t="s">
-        <v>1285</v>
-      </c>
-      <c r="G354" t="s">
-        <v>1698</v>
-      </c>
       <c r="H354" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -14983,13 +15136,13 @@
         <v>1285</v>
       </c>
       <c r="F355" t="s">
-        <v>1400</v>
+        <v>1346</v>
       </c>
       <c r="G355" t="s">
-        <v>1699</v>
+        <v>1734</v>
       </c>
       <c r="H355" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -15015,7 +15168,7 @@
         <v>947</v>
       </c>
       <c r="H356" t="s">
-        <v>1786</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -15035,13 +15188,13 @@
         <v>1325</v>
       </c>
       <c r="F357" t="s">
-        <v>1378</v>
+        <v>1388</v>
       </c>
       <c r="G357" t="s">
-        <v>1700</v>
+        <v>1735</v>
       </c>
       <c r="H357" t="s">
-        <v>1806</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -15064,10 +15217,10 @@
         <v>1276</v>
       </c>
       <c r="G358" t="s">
-        <v>947</v>
+        <v>1651</v>
       </c>
       <c r="H358" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -15087,13 +15240,13 @@
         <v>1298</v>
       </c>
       <c r="F359" t="s">
-        <v>1381</v>
+        <v>1392</v>
       </c>
       <c r="G359" t="s">
-        <v>1701</v>
+        <v>1736</v>
       </c>
       <c r="H359" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -15116,10 +15269,10 @@
         <v>1278</v>
       </c>
       <c r="G360" t="s">
-        <v>1199</v>
+        <v>1697</v>
       </c>
       <c r="H360" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -15139,13 +15292,13 @@
         <v>1279</v>
       </c>
       <c r="F361" t="s">
-        <v>1439</v>
+        <v>1373</v>
       </c>
       <c r="G361" t="s">
-        <v>1702</v>
+        <v>1737</v>
       </c>
       <c r="H361" t="s">
-        <v>1784</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -15171,7 +15324,7 @@
         <v>1240</v>
       </c>
       <c r="H362" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -15191,13 +15344,13 @@
         <v>1286</v>
       </c>
       <c r="F363" t="s">
-        <v>1440</v>
+        <v>1451</v>
       </c>
       <c r="G363" t="s">
-        <v>1703</v>
+        <v>1738</v>
       </c>
       <c r="H363" t="s">
-        <v>1784</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -15217,13 +15370,13 @@
         <v>1279</v>
       </c>
       <c r="F364" t="s">
-        <v>1337</v>
+        <v>1343</v>
       </c>
       <c r="G364" t="s">
-        <v>1704</v>
+        <v>1739</v>
       </c>
       <c r="H364" t="s">
-        <v>1786</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -15243,13 +15396,13 @@
         <v>1279</v>
       </c>
       <c r="F365" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="G365" t="s">
-        <v>1705</v>
+        <v>1740</v>
       </c>
       <c r="H365" t="s">
-        <v>1807</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -15275,7 +15428,7 @@
         <v>1089</v>
       </c>
       <c r="H366" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -15301,7 +15454,7 @@
         <v>933</v>
       </c>
       <c r="H367" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -15321,13 +15474,13 @@
         <v>1298</v>
       </c>
       <c r="F368" t="s">
-        <v>1390</v>
+        <v>1383</v>
       </c>
       <c r="G368" t="s">
-        <v>1706</v>
+        <v>1741</v>
       </c>
       <c r="H368" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15350,10 +15503,10 @@
         <v>1337</v>
       </c>
       <c r="G369" t="s">
-        <v>1707</v>
+        <v>1742</v>
       </c>
       <c r="H369" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -15373,13 +15526,13 @@
         <v>1285</v>
       </c>
       <c r="F370" t="s">
-        <v>1441</v>
+        <v>1379</v>
       </c>
       <c r="G370" t="s">
-        <v>1708</v>
+        <v>1743</v>
       </c>
       <c r="H370" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -15399,13 +15552,13 @@
         <v>1279</v>
       </c>
       <c r="F371" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="G371" t="s">
-        <v>1709</v>
+        <v>1744</v>
       </c>
       <c r="H371" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -15425,13 +15578,13 @@
         <v>1285</v>
       </c>
       <c r="F372" t="s">
-        <v>1390</v>
+        <v>1383</v>
       </c>
       <c r="G372" t="s">
-        <v>1710</v>
+        <v>1745</v>
       </c>
       <c r="H372" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -15451,13 +15604,13 @@
         <v>1285</v>
       </c>
       <c r="F373" t="s">
-        <v>1362</v>
+        <v>1366</v>
       </c>
       <c r="G373" t="s">
-        <v>1711</v>
+        <v>1746</v>
       </c>
       <c r="H373" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15480,10 +15633,10 @@
         <v>1285</v>
       </c>
       <c r="G374" t="s">
-        <v>1712</v>
+        <v>1747</v>
       </c>
       <c r="H374" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15506,10 +15659,10 @@
         <v>1285</v>
       </c>
       <c r="G375" t="s">
-        <v>1211</v>
+        <v>1748</v>
       </c>
       <c r="H375" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15529,13 +15682,13 @@
         <v>1279</v>
       </c>
       <c r="F376" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="G376" t="s">
-        <v>1713</v>
+        <v>1749</v>
       </c>
       <c r="H376" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15555,13 +15708,13 @@
         <v>1279</v>
       </c>
       <c r="F377" t="s">
-        <v>1442</v>
+        <v>1426</v>
       </c>
       <c r="G377" t="s">
-        <v>1714</v>
+        <v>1750</v>
       </c>
       <c r="H377" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15581,13 +15734,13 @@
         <v>1285</v>
       </c>
       <c r="F378" t="s">
-        <v>1352</v>
+        <v>1452</v>
       </c>
       <c r="G378" t="s">
-        <v>1715</v>
+        <v>1751</v>
       </c>
       <c r="H378" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15607,13 +15760,13 @@
         <v>1326</v>
       </c>
       <c r="F379" t="s">
-        <v>1443</v>
+        <v>1453</v>
       </c>
       <c r="G379" t="s">
-        <v>1716</v>
+        <v>1752</v>
       </c>
       <c r="H379" t="s">
-        <v>1791</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15639,7 +15792,7 @@
         <v>1065</v>
       </c>
       <c r="H380" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15659,13 +15812,13 @@
         <v>1322</v>
       </c>
       <c r="F381" t="s">
-        <v>1444</v>
+        <v>1454</v>
       </c>
       <c r="G381" t="s">
-        <v>1717</v>
+        <v>1753</v>
       </c>
       <c r="H381" t="s">
-        <v>1783</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15685,13 +15838,13 @@
         <v>1327</v>
       </c>
       <c r="F382" t="s">
-        <v>1445</v>
+        <v>1455</v>
       </c>
       <c r="G382" t="s">
-        <v>1718</v>
+        <v>1754</v>
       </c>
       <c r="H382" t="s">
-        <v>1808</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15711,13 +15864,13 @@
         <v>1328</v>
       </c>
       <c r="F383" t="s">
-        <v>1446</v>
+        <v>1456</v>
       </c>
       <c r="G383" t="s">
-        <v>1719</v>
+        <v>1755</v>
       </c>
       <c r="H383" t="s">
-        <v>1799</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -15737,13 +15890,13 @@
         <v>1329</v>
       </c>
       <c r="F384" t="s">
-        <v>1370</v>
+        <v>1379</v>
       </c>
       <c r="G384" t="s">
-        <v>1720</v>
+        <v>1756</v>
       </c>
       <c r="H384" t="s">
-        <v>1783</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -15763,13 +15916,13 @@
         <v>1279</v>
       </c>
       <c r="F385" t="s">
-        <v>1371</v>
+        <v>1380</v>
       </c>
       <c r="G385" t="s">
-        <v>1721</v>
+        <v>1757</v>
       </c>
       <c r="H385" t="s">
-        <v>1798</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -15789,13 +15942,13 @@
         <v>1325</v>
       </c>
       <c r="F386" t="s">
-        <v>1447</v>
+        <v>1457</v>
       </c>
       <c r="G386" t="s">
-        <v>1722</v>
+        <v>1758</v>
       </c>
       <c r="H386" t="s">
-        <v>1784</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -15815,13 +15968,13 @@
         <v>1294</v>
       </c>
       <c r="F387" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="G387" t="s">
-        <v>1723</v>
+        <v>1759</v>
       </c>
       <c r="H387" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -15841,13 +15994,13 @@
         <v>1283</v>
       </c>
       <c r="F388" t="s">
-        <v>1448</v>
+        <v>1458</v>
       </c>
       <c r="G388" t="s">
-        <v>1724</v>
+        <v>1760</v>
       </c>
       <c r="H388" t="s">
-        <v>1784</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -15873,7 +16026,7 @@
         <v>1065</v>
       </c>
       <c r="H389" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -15893,13 +16046,13 @@
         <v>1295</v>
       </c>
       <c r="F390" t="s">
-        <v>1359</v>
+        <v>1363</v>
       </c>
       <c r="G390" t="s">
-        <v>1725</v>
+        <v>1761</v>
       </c>
       <c r="H390" t="s">
-        <v>1780</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -15919,13 +16072,13 @@
         <v>1285</v>
       </c>
       <c r="F391" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="G391" t="s">
-        <v>1726</v>
+        <v>1762</v>
       </c>
       <c r="H391" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -15945,13 +16098,13 @@
         <v>1285</v>
       </c>
       <c r="F392" t="s">
-        <v>1449</v>
+        <v>1459</v>
       </c>
       <c r="G392" t="s">
-        <v>1727</v>
+        <v>1763</v>
       </c>
       <c r="H392" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -15971,13 +16124,13 @@
         <v>1279</v>
       </c>
       <c r="F393" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="G393" t="s">
-        <v>1728</v>
+        <v>1764</v>
       </c>
       <c r="H393" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -15997,13 +16150,13 @@
         <v>1285</v>
       </c>
       <c r="F394" t="s">
-        <v>1285</v>
+        <v>1383</v>
       </c>
       <c r="G394" t="s">
-        <v>1089</v>
+        <v>1765</v>
       </c>
       <c r="H394" t="s">
-        <v>1793</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -16029,7 +16182,7 @@
         <v>1089</v>
       </c>
       <c r="H395" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -16049,13 +16202,13 @@
         <v>1285</v>
       </c>
       <c r="F396" t="s">
-        <v>1390</v>
+        <v>1285</v>
       </c>
       <c r="G396" t="s">
-        <v>1729</v>
+        <v>1065</v>
       </c>
       <c r="H396" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -16075,13 +16228,13 @@
         <v>1279</v>
       </c>
       <c r="F397" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="G397" t="s">
-        <v>1713</v>
+        <v>1749</v>
       </c>
       <c r="H397" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -16101,13 +16254,13 @@
         <v>1294</v>
       </c>
       <c r="F398" t="s">
-        <v>1415</v>
+        <v>1460</v>
       </c>
       <c r="G398" t="s">
-        <v>1730</v>
+        <v>1766</v>
       </c>
       <c r="H398" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -16133,7 +16286,7 @@
         <v>968</v>
       </c>
       <c r="H399" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -16153,13 +16306,13 @@
         <v>1304</v>
       </c>
       <c r="F400" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="G400" t="s">
-        <v>1524</v>
+        <v>1547</v>
       </c>
       <c r="H400" t="s">
-        <v>1809</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -16182,10 +16335,10 @@
         <v>1278</v>
       </c>
       <c r="G401" t="s">
-        <v>1227</v>
+        <v>1767</v>
       </c>
       <c r="H401" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -16205,13 +16358,13 @@
         <v>1294</v>
       </c>
       <c r="F402" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="G402" t="s">
-        <v>1731</v>
+        <v>1768</v>
       </c>
       <c r="H402" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -16231,13 +16384,13 @@
         <v>1285</v>
       </c>
       <c r="F403" t="s">
-        <v>1362</v>
+        <v>1366</v>
       </c>
       <c r="G403" t="s">
-        <v>1732</v>
+        <v>1769</v>
       </c>
       <c r="H403" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -16257,13 +16410,13 @@
         <v>1279</v>
       </c>
       <c r="F404" t="s">
-        <v>1359</v>
+        <v>1363</v>
       </c>
       <c r="G404" t="s">
-        <v>1733</v>
+        <v>1770</v>
       </c>
       <c r="H404" t="s">
-        <v>1780</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -16283,13 +16436,13 @@
         <v>1325</v>
       </c>
       <c r="F405" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="G405" t="s">
-        <v>1517</v>
+        <v>1540</v>
       </c>
       <c r="H405" t="s">
-        <v>1784</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -16315,7 +16468,7 @@
         <v>1089</v>
       </c>
       <c r="H406" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -16335,13 +16488,13 @@
         <v>1294</v>
       </c>
       <c r="F407" t="s">
-        <v>1451</v>
+        <v>1461</v>
       </c>
       <c r="G407" t="s">
-        <v>1734</v>
+        <v>1771</v>
       </c>
       <c r="H407" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -16361,13 +16514,13 @@
         <v>1285</v>
       </c>
       <c r="F408" t="s">
-        <v>1285</v>
+        <v>1406</v>
       </c>
       <c r="G408" t="s">
-        <v>964</v>
+        <v>1772</v>
       </c>
       <c r="H408" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -16390,10 +16543,10 @@
         <v>1278</v>
       </c>
       <c r="G409" t="s">
-        <v>968</v>
+        <v>1773</v>
       </c>
       <c r="H409" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -16419,7 +16572,7 @@
         <v>1234</v>
       </c>
       <c r="H410" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -16439,13 +16592,13 @@
         <v>1324</v>
       </c>
       <c r="F411" t="s">
-        <v>1452</v>
+        <v>1462</v>
       </c>
       <c r="G411" t="s">
-        <v>1735</v>
+        <v>1774</v>
       </c>
       <c r="H411" t="s">
-        <v>1796</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -16465,13 +16618,13 @@
         <v>1285</v>
       </c>
       <c r="F412" t="s">
-        <v>1453</v>
+        <v>1463</v>
       </c>
       <c r="G412" t="s">
-        <v>1736</v>
+        <v>1775</v>
       </c>
       <c r="H412" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16491,13 +16644,13 @@
         <v>1312</v>
       </c>
       <c r="F413" t="s">
-        <v>1435</v>
+        <v>1447</v>
       </c>
       <c r="G413" t="s">
-        <v>1737</v>
+        <v>1776</v>
       </c>
       <c r="H413" t="s">
-        <v>1795</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16517,13 +16670,13 @@
         <v>1285</v>
       </c>
       <c r="F414" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="G414" t="s">
-        <v>1738</v>
+        <v>1777</v>
       </c>
       <c r="H414" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16543,13 +16696,13 @@
         <v>1330</v>
       </c>
       <c r="F415" t="s">
-        <v>1391</v>
+        <v>1464</v>
       </c>
       <c r="G415" t="s">
-        <v>1739</v>
+        <v>1778</v>
       </c>
       <c r="H415" t="s">
-        <v>1810</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16575,7 +16728,7 @@
         <v>1240</v>
       </c>
       <c r="H416" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16598,10 +16751,10 @@
         <v>1278</v>
       </c>
       <c r="G417" t="s">
-        <v>1241</v>
+        <v>1779</v>
       </c>
       <c r="H417" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16624,10 +16777,10 @@
         <v>1337</v>
       </c>
       <c r="G418" t="s">
-        <v>1740</v>
+        <v>1780</v>
       </c>
       <c r="H418" t="s">
-        <v>1797</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16647,13 +16800,13 @@
         <v>1295</v>
       </c>
       <c r="F419" t="s">
-        <v>1389</v>
+        <v>1403</v>
       </c>
       <c r="G419" t="s">
-        <v>1741</v>
+        <v>1781</v>
       </c>
       <c r="H419" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16673,13 +16826,13 @@
         <v>1285</v>
       </c>
       <c r="F420" t="s">
-        <v>1367</v>
+        <v>1376</v>
       </c>
       <c r="G420" t="s">
-        <v>1742</v>
+        <v>1782</v>
       </c>
       <c r="H420" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -16699,13 +16852,13 @@
         <v>1294</v>
       </c>
       <c r="F421" t="s">
-        <v>1405</v>
+        <v>1373</v>
       </c>
       <c r="G421" t="s">
-        <v>1743</v>
+        <v>1783</v>
       </c>
       <c r="H421" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -16728,10 +16881,10 @@
         <v>1278</v>
       </c>
       <c r="G422" t="s">
-        <v>933</v>
+        <v>1505</v>
       </c>
       <c r="H422" t="s">
-        <v>1784</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16757,7 +16910,7 @@
         <v>1065</v>
       </c>
       <c r="H423" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -16783,7 +16936,7 @@
         <v>1245</v>
       </c>
       <c r="H424" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -16803,13 +16956,13 @@
         <v>1298</v>
       </c>
       <c r="F425" t="s">
-        <v>1405</v>
+        <v>1442</v>
       </c>
       <c r="G425" t="s">
-        <v>1744</v>
+        <v>1784</v>
       </c>
       <c r="H425" t="s">
-        <v>1780</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -16829,13 +16982,13 @@
         <v>1330</v>
       </c>
       <c r="F426" t="s">
-        <v>1454</v>
+        <v>1465</v>
       </c>
       <c r="G426" t="s">
-        <v>1745</v>
+        <v>1785</v>
       </c>
       <c r="H426" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -16854,14 +17007,11 @@
       <c r="E427" t="s">
         <v>1285</v>
       </c>
-      <c r="F427" t="s">
-        <v>1415</v>
-      </c>
       <c r="G427" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="H427" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -16884,10 +17034,10 @@
         <v>1278</v>
       </c>
       <c r="G428" t="s">
-        <v>1747</v>
+        <v>1786</v>
       </c>
       <c r="H428" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -16907,13 +17057,13 @@
         <v>1285</v>
       </c>
       <c r="F429" t="s">
-        <v>1363</v>
+        <v>1466</v>
       </c>
       <c r="G429" t="s">
-        <v>1748</v>
+        <v>1787</v>
       </c>
       <c r="H429" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -16933,13 +17083,13 @@
         <v>1294</v>
       </c>
       <c r="F430" t="s">
-        <v>1359</v>
+        <v>1363</v>
       </c>
       <c r="G430" t="s">
-        <v>1749</v>
+        <v>1788</v>
       </c>
       <c r="H430" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -16959,13 +17109,13 @@
         <v>1297</v>
       </c>
       <c r="F431" t="s">
-        <v>1390</v>
+        <v>1383</v>
       </c>
       <c r="G431" t="s">
-        <v>1750</v>
+        <v>1789</v>
       </c>
       <c r="H431" t="s">
-        <v>1811</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -16985,13 +17135,13 @@
         <v>1297</v>
       </c>
       <c r="F432" t="s">
-        <v>1415</v>
+        <v>1467</v>
       </c>
       <c r="G432" t="s">
-        <v>1751</v>
+        <v>1790</v>
       </c>
       <c r="H432" t="s">
-        <v>1786</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -17017,7 +17167,7 @@
         <v>968</v>
       </c>
       <c r="H433" t="s">
-        <v>1780</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -17037,13 +17187,13 @@
         <v>1294</v>
       </c>
       <c r="F434" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="G434" t="s">
-        <v>1752</v>
+        <v>1791</v>
       </c>
       <c r="H434" t="s">
-        <v>1807</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -17063,13 +17213,13 @@
         <v>1285</v>
       </c>
       <c r="F435" t="s">
-        <v>1455</v>
+        <v>1468</v>
       </c>
       <c r="G435" t="s">
-        <v>1753</v>
+        <v>1792</v>
       </c>
       <c r="H435" t="s">
-        <v>1798</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -17089,13 +17239,13 @@
         <v>1330</v>
       </c>
       <c r="F436" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="G436" t="s">
-        <v>1754</v>
+        <v>1793</v>
       </c>
       <c r="H436" t="s">
-        <v>1780</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -17115,13 +17265,13 @@
         <v>1294</v>
       </c>
       <c r="F437" t="s">
-        <v>1352</v>
+        <v>1278</v>
       </c>
       <c r="G437" t="s">
-        <v>1755</v>
+        <v>1794</v>
       </c>
       <c r="H437" t="s">
-        <v>1780</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -17147,7 +17297,7 @@
         <v>1089</v>
       </c>
       <c r="H438" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -17167,13 +17317,13 @@
         <v>1279</v>
       </c>
       <c r="F439" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="G439" t="s">
-        <v>1756</v>
+        <v>1795</v>
       </c>
       <c r="H439" t="s">
-        <v>1780</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -17193,13 +17343,13 @@
         <v>1279</v>
       </c>
       <c r="F440" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="G440" t="s">
-        <v>1757</v>
+        <v>1796</v>
       </c>
       <c r="H440" t="s">
-        <v>1780</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -17219,13 +17369,13 @@
         <v>1279</v>
       </c>
       <c r="F441" t="s">
-        <v>1456</v>
+        <v>1469</v>
       </c>
       <c r="G441" t="s">
-        <v>1758</v>
+        <v>1797</v>
       </c>
       <c r="H441" t="s">
-        <v>1783</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -17245,13 +17395,13 @@
         <v>1279</v>
       </c>
       <c r="F442" t="s">
-        <v>1435</v>
+        <v>1447</v>
       </c>
       <c r="G442" t="s">
-        <v>1759</v>
+        <v>1798</v>
       </c>
       <c r="H442" t="s">
-        <v>1780</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -17271,13 +17421,13 @@
         <v>1294</v>
       </c>
       <c r="F443" t="s">
-        <v>1391</v>
+        <v>1294</v>
       </c>
       <c r="G443" t="s">
-        <v>1760</v>
+        <v>1799</v>
       </c>
       <c r="H443" t="s">
-        <v>1780</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -17297,13 +17447,13 @@
         <v>1279</v>
       </c>
       <c r="F444" t="s">
-        <v>1362</v>
+        <v>1366</v>
       </c>
       <c r="G444" t="s">
-        <v>1761</v>
+        <v>1800</v>
       </c>
       <c r="H444" t="s">
-        <v>1786</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -17323,13 +17473,13 @@
         <v>1332</v>
       </c>
       <c r="F445" t="s">
-        <v>1457</v>
+        <v>1470</v>
       </c>
       <c r="G445" t="s">
-        <v>1762</v>
+        <v>1801</v>
       </c>
       <c r="H445" t="s">
-        <v>1812</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -17349,13 +17499,13 @@
         <v>1279</v>
       </c>
       <c r="F446" t="s">
-        <v>1424</v>
+        <v>1354</v>
       </c>
       <c r="G446" t="s">
-        <v>1763</v>
+        <v>1802</v>
       </c>
       <c r="H446" t="s">
-        <v>1786</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -17378,10 +17528,10 @@
         <v>1337</v>
       </c>
       <c r="G447" t="s">
-        <v>1764</v>
+        <v>1803</v>
       </c>
       <c r="H447" t="s">
-        <v>1794</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -17401,13 +17551,13 @@
         <v>1285</v>
       </c>
       <c r="F448" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="G448" t="s">
-        <v>1765</v>
+        <v>1804</v>
       </c>
       <c r="H448" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -17427,13 +17577,13 @@
         <v>1294</v>
       </c>
       <c r="F449" t="s">
-        <v>1424</v>
+        <v>1471</v>
       </c>
       <c r="G449" t="s">
-        <v>1766</v>
+        <v>1805</v>
       </c>
       <c r="H449" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17453,13 +17603,13 @@
         <v>1285</v>
       </c>
       <c r="F450" t="s">
-        <v>1278</v>
+        <v>1343</v>
       </c>
       <c r="G450" t="s">
-        <v>968</v>
+        <v>1806</v>
       </c>
       <c r="H450" t="s">
-        <v>1781</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -17479,13 +17629,13 @@
         <v>1285</v>
       </c>
       <c r="F451" t="s">
-        <v>1370</v>
+        <v>1472</v>
       </c>
       <c r="G451" t="s">
-        <v>1767</v>
+        <v>1807</v>
       </c>
       <c r="H451" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17505,13 +17655,13 @@
         <v>1322</v>
       </c>
       <c r="F452" t="s">
-        <v>1458</v>
+        <v>1473</v>
       </c>
       <c r="G452" t="s">
-        <v>1768</v>
+        <v>1808</v>
       </c>
       <c r="H452" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -17531,13 +17681,13 @@
         <v>1294</v>
       </c>
       <c r="F453" t="s">
-        <v>1459</v>
+        <v>1474</v>
       </c>
       <c r="G453" t="s">
-        <v>1769</v>
+        <v>1809</v>
       </c>
       <c r="H453" t="s">
-        <v>1782</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17557,13 +17707,13 @@
         <v>1333</v>
       </c>
       <c r="F454" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="G454" t="s">
-        <v>1770</v>
+        <v>1810</v>
       </c>
       <c r="H454" t="s">
-        <v>1799</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17583,13 +17733,13 @@
         <v>1334</v>
       </c>
       <c r="F455" t="s">
-        <v>1460</v>
+        <v>1475</v>
       </c>
       <c r="G455" t="s">
-        <v>1771</v>
+        <v>1811</v>
       </c>
       <c r="H455" t="s">
-        <v>1804</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17609,13 +17759,13 @@
         <v>1279</v>
       </c>
       <c r="F456" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="G456" t="s">
-        <v>1678</v>
+        <v>1713</v>
       </c>
       <c r="H456" t="s">
-        <v>1802</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17635,13 +17785,13 @@
         <v>1279</v>
       </c>
       <c r="F457" t="s">
-        <v>1461</v>
+        <v>1476</v>
       </c>
       <c r="G457" t="s">
-        <v>1772</v>
+        <v>1812</v>
       </c>
       <c r="H457" t="s">
-        <v>1780</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17664,10 +17814,10 @@
         <v>1278</v>
       </c>
       <c r="G458" t="s">
-        <v>1773</v>
+        <v>1813</v>
       </c>
       <c r="H458" t="s">
-        <v>1813</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17687,10 +17837,10 @@
         <v>1294</v>
       </c>
       <c r="G459" t="s">
-        <v>1774</v>
+        <v>1814</v>
       </c>
       <c r="H459" t="s">
-        <v>1779</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17710,13 +17860,13 @@
         <v>1330</v>
       </c>
       <c r="F460" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="G460" t="s">
-        <v>1775</v>
+        <v>1815</v>
       </c>
       <c r="H460" t="s">
-        <v>1780</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -17736,13 +17886,13 @@
         <v>1322</v>
       </c>
       <c r="F461" t="s">
-        <v>1413</v>
+        <v>1477</v>
       </c>
       <c r="G461" t="s">
-        <v>1776</v>
+        <v>1816</v>
       </c>
       <c r="H461" t="s">
-        <v>1794</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -17762,13 +17912,13 @@
         <v>1304</v>
       </c>
       <c r="F462" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="G462" t="s">
-        <v>1777</v>
+        <v>1817</v>
       </c>
       <c r="H462" t="s">
-        <v>1780</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -17791,10 +17941,10 @@
         <v>1278</v>
       </c>
       <c r="G463" t="s">
-        <v>1778</v>
+        <v>1818</v>
       </c>
       <c r="H463" t="s">
-        <v>1783</v>
+        <v>1823</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Categorization/dp-partial-ner-w2v-money.xlsx
+++ b/Results/Categorization/dp-partial-ner-w2v-money.xlsx
@@ -4522,7 +4522,7 @@
     <t>menu|prix|fixe|penny</t>
   </si>
   <si>
-    <t>food|$6!-</t>
+    <t>food|$6</t>
   </si>
   <si>
     <t>somosas|chai|chole|dhosas|dhal</t>
@@ -4612,7 +4612,7 @@
     <t>pizza|way</t>
   </si>
   <si>
-    <t>toppings|$20!-|$3!-</t>
+    <t>toppings|$20|$3</t>
   </si>
   <si>
     <t>lunch|reviews</t>
@@ -4690,7 +4690,7 @@
     <t>d'|maitre</t>
   </si>
   <si>
-    <t>|dessert|$8.00!-</t>
+    <t>|dessert|$8.00</t>
   </si>
   <si>
     <t>|drinks</t>
@@ -4840,13 +4840,13 @@
     <t>yellowtail</t>
   </si>
   <si>
-    <t>choices|food|$18!-</t>
+    <t>choices|food|$18</t>
   </si>
   <si>
     <t>price|food|service</t>
   </si>
   <si>
-    <t>price|$3-6!-</t>
+    <t>price|$3-6</t>
   </si>
   <si>
     <t>takeout|tupperware|quality</t>
@@ -4903,7 +4903,7 @@
     <t>|menu|restaurant</t>
   </si>
   <si>
-    <t>|wines|$70!-|$30!-</t>
+    <t>|wines|$70|$30</t>
   </si>
   <si>
     <t>service|joint|price|category</t>
@@ -5026,7 +5026,7 @@
     <t>prices</t>
   </si>
   <si>
-    <t>sandwiches|chips|side|$7!-</t>
+    <t>sandwiches|chips|side|$7</t>
   </si>
   <si>
     <t>experience|desk|atmosphere</t>
@@ -5044,7 +5044,7 @@
     <t>seafood|prices</t>
   </si>
   <si>
-    <t>lobster|sandwich|price|$24!-</t>
+    <t>lobster|sandwich|price|$24</t>
   </si>
   <si>
     <t>|occassion|sort|candle</t>
@@ -5056,7 +5056,7 @@
     <t>food|waiters</t>
   </si>
   <si>
-    <t>plate|cheese|bargain|delight|$10!-</t>
+    <t>plate|cheese|bargain|delight|$10</t>
   </si>
   <si>
     <t>|list|wine</t>
@@ -5146,7 +5146,7 @@
     <t>|sandwich|cheese|manager</t>
   </si>
   <si>
-    <t>music|isnt|100 dollar!-</t>
+    <t>music|isnt|100 dollar</t>
   </si>
   <si>
     <t>atmoshere|bit</t>
@@ -5158,13 +5158,13 @@
     <t>food|price</t>
   </si>
   <si>
-    <t>staff|wait|part|beautification|fun|way|way|$*!-</t>
+    <t>staff|wait|part|beautification|fun|way|way|$*</t>
   </si>
   <si>
     <t>part|atmosphere|ls|bts</t>
   </si>
   <si>
-    <t>shanty|vanilla|setting|music|mmmm|$8.50!-</t>
+    <t>shanty|vanilla|setting|music|mmmm|$8.50</t>
   </si>
   <si>
     <t>taste|music|dj|lady</t>
@@ -5293,13 +5293,13 @@
     <t>food|decor|prices|prices</t>
   </si>
   <si>
-    <t>sushi|$20!-</t>
+    <t>sushi|$20</t>
   </si>
   <si>
     <t>scene|character|light|place</t>
   </si>
   <si>
-    <t>fish|chips|$15!-</t>
+    <t>fish|chips|$15</t>
   </si>
   <si>
     <t>restaurant|friend</t>
@@ -5308,7 +5308,7 @@
     <t>space|kind|alice|wonderland|setting</t>
   </si>
   <si>
-    <t>meal|$60!-</t>
+    <t>meal|$60</t>
   </si>
   <si>
     <t>|place|bit</t>
@@ -5320,16 +5320,16 @@
     <t>|dinner</t>
   </si>
   <si>
-    <t>dinner|feet|$400.00!-</t>
+    <t>dinner|feet|$400.00</t>
   </si>
   <si>
     <t>area|garden</t>
   </si>
   <si>
-    <t>guacamole|plate|$11!-</t>
-  </si>
-  <si>
-    <t>water|table|voss|bottles|water|piece|$8!-</t>
+    <t>guacamole|plate|$11</t>
+  </si>
+  <si>
+    <t>water|table|voss|bottles|water|piece|$8</t>
   </si>
   <si>
     <t>view|river|nyc</t>
@@ -5371,7 +5371,7 @@
     <t>atmosphere|bit|scheme</t>
   </si>
   <si>
-    <t>service|price|dish|$10!-</t>
+    <t>service|price|dish|$10</t>
   </si>
   <si>
     <t>martinis</t>
@@ -5380,7 +5380,7 @@
     <t>dj|bunch|birthday|friends</t>
   </si>
   <si>
-    <t>dinner|wine|$500!-</t>
+    <t>dinner|wine|$500</t>
   </si>
   <si>
     <t>environment|name</t>
@@ -5395,16 +5395,16 @@
     <t>environment|lot|guys|wives|escorts</t>
   </si>
   <si>
-    <t>|service|$500!-</t>
+    <t>|service|$500</t>
   </si>
   <si>
     <t>|diners</t>
   </si>
   <si>
-    <t>drinks|$14!-</t>
-  </si>
-  <si>
-    <t>dinner|$55!-</t>
+    <t>drinks|$14</t>
+  </si>
+  <si>
+    <t>dinner|$55</t>
   </si>
   <si>
     <t>show|food|wallets|experience|dancers|belly</t>
@@ -5419,10 +5419,10 @@
     <t>side|food</t>
   </si>
   <si>
-    <t>restaurant|feel|price|place|$25!-</t>
-  </si>
-  <si>
-    <t>food|$!-</t>
+    <t>restaurant|feel|price|place|$25</t>
+  </si>
+  <si>
+    <t>food|$</t>
   </si>
   <si>
     <t>buffet|lunch</t>
@@ -5431,7 +5431,7 @@
     <t>dinner|ideal</t>
   </si>
   <si>
-    <t>stone|bowl|$2!-</t>
+    <t>stone|bowl|$2</t>
   </si>
   <si>
     <t>restaurant|city</t>
@@ -5440,19 +5440,19 @@
     <t>brasserie|opinion|restaurants|city</t>
   </si>
   <si>
-    <t>deal|party|$29!-</t>
+    <t>deal|party|$29</t>
   </si>
   <si>
     <t>company|date|point|price|brasserie</t>
   </si>
   <si>
-    <t>service|$500!-</t>
+    <t>service|$500</t>
   </si>
   <si>
     <t>meat|kimchi|sauces|salad|meal|service</t>
   </si>
   <si>
-    <t>bite|salmon|restaurants|salmon|$24!-</t>
+    <t>bite|salmon|restaurants|salmon|$24</t>
   </si>
   <si>
     <t>eggplant</t>
@@ -5461,7 +5461,7 @@
     <t>pricing</t>
   </si>
   <si>
-    <t>service|$60!-</t>
+    <t>service|$60</t>
   </si>
   <si>
     <t>joint|dog|glance|bark</t>
